--- a/dataset/lg/sumathi.xlsx
+++ b/dataset/lg/sumathi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీ రాముని దయ చేతను
 నారూఢిగ సకల జనులు నౌరా యనఁగా
@@ -477,32 +474,29 @@
 నోరూఁరఁగ జవులు పుట్ట నుడివెద సుమతీ!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('రా', 'U'), ('ము', '|'), ('ని', '|'), ('ద', '|'), ('య', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('నా', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('గ', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('నౌ', 'U'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('ధా', 'U'), ('రా', 'U'), ('ళ', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('తు', '|'), ('లు', '|'), ('నో', 'U'), ('రూ', 'U'), ('ర', '|'), ('గ', '|'), ('జ', '|'), ('వు', '|'), ('లు', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ను', '|'), ('డి', '|'), ('వె', '|'), ('ద', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>అక్కఱకు రాని చుట్టము
 మ్రొక్కిన వరమీని వేల్పు మోహరమునఁ దా
@@ -510,32 +504,29 @@
 గ్రక్కున విడువంగ వలయుఁ గదరా సుమతీ !</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్క', '|'), ('ఱ', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('ని', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('ము', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అడిగిన జీతం బియ్యని
 మిడిమేలపు దొరను గొల్చి మిడుకుట కంటెన్‌
@@ -543,32 +534,29 @@
 మడి దున్నుక బ్రతుక వచ్చు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('జీ', 'U'), ('తం', 'U'), ('బి', 'U'), ('య్య', '|'), ('ని', '|'), ('మి', '|'), ('డి', '|'), ('మే', 'U'), ('ల', '|'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('మి', '|'), ('డు', '|'), ('కు', '|'), ('ట', '|'), ('కం', 'U'), ('టెన్', 'U'), ('వ', '|'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('యె', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టు', '|'), ('క', '|'), ('మ', '|'), ('డి', '|'), ('దు', 'U'), ('న్ను', '|'), ('క', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>అడియాస కొలువుఁ గొలువకు
 గుడిమణియము సేయఁబోకు, కుజనులతోడన్‌
@@ -576,32 +564,29 @@
 మడవినిఁ దోడరయ కొంటి నరుగకు సుమతీ!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డి', '|'), ('యా', 'U'), ('స', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('గు', '|'), ('డి', '|'), ('మ', '|'), ('ణి', '|'), ('య', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('మ', '|'), ('డ', '|'), ('వి', '|'), ('ని', '|'), ('దో', 'U'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('కొం', 'U'), ('టి', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>అధరము గదలియుఁ గదలక
 మధురములగు భాషలుడిగి మౌనవ్రతుఁడౌ
@@ -609,32 +594,29 @@
 బధిరాంధక శవముఁ జూడఁ బాపము సుమతీ!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గు', '|'), ('భా', 'U'), ('ష', '|'), ('లు', '|'), ('డి', '|'), ('గి', '|'), ('మౌ', 'U'), ('న', 'U'), ('వ్ర', '|'), ('తు', '|'), ('డౌ', 'U'), ('న', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('రో', 'U'), ('గ', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('బ', '|'), ('ధి', '|'), ('రాం', 'U'), ('ధ', '|'), ('క', '|'), ('శ', '|'), ('వ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('బా', 'U'), ('ప', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>అప్పుగొని చేయు విభవము
 ముప్పునఁ బ్రాయంపుటాలు మూర్ఖుని తపము\న్‌
@@ -642,32 +624,29 @@
 దెప్పరమై మీఁదఁ గీడు దెచ్చుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('ని', '|'), ('చే', 'U'), ('యు', '|'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('ము', 'U'), ('ప్పు', '|'), ('న', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లు', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ని', '|'), ('త', '|'), ('ప', '|'), ('మున్', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('ర', '|'), ('య', '|'), ('ని', '|'), ('నృ', '|'), ('పు', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('దె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('మై', 'U'), ('మీ', 'U'), ('ద', '|'), ('గీ', 'U'), ('డు', '|'), ('దె', 'U'), ('చ్చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>అప్పిచ్చు వాఁడు వైద్యుఁడు
 నెప్పుడు నెడతెగక పాఱు నేఱును ద్విజుఁడున్‌
@@ -675,32 +654,29 @@
 చొప్పడ కున్నట్టి యూరుఁ జొరకుము సుమతీ!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్పి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డు', '|'), ('వై', 'U'), ('ద్యు', '|'), ('డు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('తె', '|'), ('గ', '|'), ('క', '|'), ('పా', 'U'), ('ఱు', '|'), ('నే', 'U'), ('ఱు', '|'), ('ను', 'U'), ('ద్వి', '|'), ('జు', '|'), ('డున్', 'U'), ('జొ', 'U'), ('ప్ప', '|'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ర', '|'), ('నుం', 'U'), ('డు', '|'), ('ము', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('కు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('యూ', 'U'), ('రు', '|'), ('జొ', '|'), ('ర', '|'), ('కు', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>అల్లుని మంచితనంబును
 గొల్లని సాహిత్యవిద్య కోమలి నిజము\న్‌
@@ -708,32 +684,29 @@
 దెల్లని కాకులును లేవు తెలియర సుమతీ!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ల్లు', '|'), ('ని', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('సా', 'U'), ('హి', 'U'), ('త్య', '|'), ('వి', 'U'), ('ద్య', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ని', '|'), ('జ', '|'), ('మున్', 'U'), ('బొ', 'U'), ('ల్లు', '|'), ('న', '|'), ('దం', 'U'), ('చి', '|'), ('న', '|'), ('బి', 'U'), ('య్య', '|'), ('ము', '|'), ('దె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కా', 'U'), ('కు', '|'), ('లు', '|'), ('ను', '|'), ('లే', 'U'), ('వు', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>ఆఁకొన్న కూడె యమృతము
 తాఁకొంకక నిచ్చు వాఁడె దాత ధరిత్రి\న్‌
@@ -741,32 +714,29 @@
 తేఁకువ కల వాఁడె వంశతిలకుఁడు సుమతీ!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కొ', 'U'), ('న్న', '|'), ('కూ', 'U'), ('డె', '|'), ('య', '|'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('తా', 'U'), ('కొం', 'U'), ('క', '|'), ('క', '|'), ('ని', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డె', '|'), ('దా', 'U'), ('త', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిన్', 'U'), ('సో', 'U'), ('కో', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('డె', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('తే', 'U'), ('కు', '|'), ('వ', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('వం', 'U'), ('శ', '|'), ('తి', '|'), ('ల', '|'), ('కు', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>ఆఁకలి యుడుగని కుడుపును
 వేఁకటియగు లంజ పడుపు విడువని బ్రతుకు\న్‌
@@ -774,32 +744,29 @@
 మేఁకల పాఁడియును రోఁత మేదిని సుమతీ!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('కు', '|'), ('డు', '|'), ('పు', '|'), ('ను', '|'), ('వే', 'U'), ('క', '|'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('లం', 'U'), ('జ', '|'), ('ప', '|'), ('డు', '|'), ('పు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('ని', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కున్', 'U'), ('బ్రా', 'U'), ('కొ', 'U'), ('న్న', '|'), ('నూ', 'U'), ('తి', '|'), ('యు', '|'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('మే', 'U'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('డి', '|'), ('యు', '|'), ('ను', '|'), ('రో', 'U'), ('త', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>ఇచ్చునదె విద్య రణమునఁ
 జొచ్చునదే మగతనంబు సుకవీశ్వరులున్‌
@@ -807,32 +774,29 @@
 వచ్చునదే కీడు సుమ్ము వసుధను సుమతీ!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దె', '|'), ('వి', 'U'), ('ద్య', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దే', 'U'), ('మ', '|'), ('గ', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('సు', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లున్', 'U'), ('మె', 'U'), ('చ్చు', '|'), ('న', '|'), ('దె', '|'), ('నే', 'U'), ('ర్పు', '|'), ('వా', 'U'), ('దు', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దే', 'U'), ('కీ', 'U'), ('డు', '|'), ('సు', 'U'), ('మ్ము', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ను', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>ఇమ్ముగఁ జదువని నోరును
 'నమ్మా' యని పిలిచి యన్న మడుగని నోరు\న్‌
@@ -840,32 +804,29 @@
 గుమ్మరి మను ద్రవ్వినట్టి గుంటర సుమతీ!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('జ', '|'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('న', 'U'), ('మ్మా', 'U'), ('య', '|'), ('ని', '|'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('య', 'U'), ('న్న', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('నో', 'U'), ('రున్', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('మ', '|'), ('ను', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('న', 'U'), ('ట్టి', '|'), ('గుం', 'U'), ('ట', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>ఉడుముండదె నూఱేండ్లును
 బడియుండదె పేర్మిఁ బాము పదినూఱేండ్లున్‌
@@ -873,32 +834,29 @@
 కడు నిలఁ బురుషార్థపరుఁడు గావలె సుమతీ!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('డు', '|'), ('ముం', 'U'), ('డ', '|'), ('దె', '|'), ('నూ', 'U'), ('ఱేం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('బ', '|'), ('డి', '|'), ('యుం', 'U'), ('డ', '|'), ('దె', '|'), ('పే', 'U'), ('ర్మి', '|'), ('బా', 'U'), ('ము', '|'), ('ప', '|'), ('ది', '|'), ('నూ', 'U'), ('ఱేం', 'U'), ('డ్లున్', 'U'), ('మ', '|'), ('డు', '|'), ('వు', '|'), ('న', '|'), ('గొ', 'U'), ('క్కె', '|'), ('ర', '|'), ('యుం', 'U'), ('డ', '|'), ('దె', '|'), ('క', '|'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('బు', '|'), ('రు', '|'), ('షా', 'U'), ('ర్థ', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>ఉత్తమ గుణములు నీచున
 కెత్తెఱఁగున గలుగ నేర్చు నెయ్యెడలం దా
@@ -906,32 +864,29 @@
 నిత్తడి బంగారమగునె యిలలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('త్త', '|'), ('మ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('చు', '|'), ('న', '|'), ('కె', 'U'), ('త్తె', '|'), ('ఱ', '|'), ('గు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', 'U'), ('య్యె', '|'), ('డ', '|'), ('లం', 'U'), ('దా', 'U'), ('నె', 'U'), ('త్తి', 'U'), ('చ్చి', '|'), ('క', '|'), ('ఱ', '|'), ('గి', '|'), ('పో', 'U'), ('సి', '|'), ('న', '|'), ('ని', 'U'), ('త్త', '|'), ('డి', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('యి', '|'), ('ల', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>ఉదకము ద్రావెడు హయమును
 మదమున నుప్పొంగుచుండు మత్తేభంబున్‌
@@ -939,32 +894,29 @@
 జదువని యా నీచుఁ జేరఁ జనకుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('వె', '|'), ('డు', '|'), ('హ', '|'), ('య', '|'), ('ము', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('మ', 'U'), ('త్తే', 'U'), ('భం', 'U'), ('బున్', 'U'), ('మొ', '|'), ('ద', '|'), ('వు', '|'), ('క', '|'), ('డ', '|'), ('ను', 'U'), ('న్న', '|'), ('వృ', '|'), ('ష', '|'), ('భ', '|'), ('ము', '|'), ('జ', '|'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('యా', 'U'), ('నీ', 'U'), ('చు', '|'), ('జే', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ఉపకారికి నుపకారము
 విపరీతము గాదు సేయ వివరింపంగా
@@ -972,32 +924,29 @@
 నెపమెన్నక సేయువాఁడు నేర్పరి సుమతీ!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('కి', '|'), ('ను', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('ప', '|'), ('రీ', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('సే', 'U'), ('య', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('న', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('కి', '|'), ('ను', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నె', '|'), ('ప', '|'), ('మె', 'U'), ('న్న', '|'), ('క', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>ఉపమింప మొదలు తియ్యన
 కపటం బెడనెడను జెఱకు కైవడి నేపో
@@ -1005,32 +954,29 @@
 గపటపు దుర్జాతి పొందు గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ప', '|'), ('మిం', 'U'), ('ప', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('తి', 'U'), ('య్య', '|'), ('న', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బె', '|'), ('డ', '|'), ('నె', '|'), ('డ', '|'), ('ను', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('నే', 'U'), ('పో', 'U'), ('నె', '|'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('ను', '|'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('ట', '|'), ('గ', '|'), ('ప', '|'), ('ట', '|'), ('పు', '|'), ('దు', 'U'), ('ర్జా', 'U'), ('తి', '|'), ('పొం', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>ఎప్పటి కెయ్యది ప్రస్తుత
 మప్పటి కా మాటలాడి యన్యుల మనముల్‌
@@ -1038,32 +984,29 @@
 తప్పించుక తిరుగువాఁడు ధన్యుడు సుమతీ!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కె', 'U'), ('య్య', '|'), ('ది', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కా', 'U'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('య', 'U'), ('న్యు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('ముల్', 'U'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('క', '|'), ('తా', 'U'), ('నొ', 'U'), ('వ్వ', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>ఎప్పుడుఁ దప్పులు వెదకెడు
 నప్పురుషునిఁ గొల్వఁగూడ దది యెట్లన్నన్‌
@@ -1071,32 +1014,29 @@
 గప్ప వసించిన విధంబు గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లు', '|'), ('వె', '|'), ('ద', '|'), ('కె', '|'), ('డు', '|'), ('న', 'U'), ('ప్పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('స', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('నీ', 'U'), ('డ', '|'), ('ను', '|'), ('గ', 'U'), ('ప్ప', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>ఎప్పుడు సంపద కలిగిన
 నప్పుడె బంధువులు వత్తురది యెట్లన్నన్‌
@@ -1104,32 +1044,29 @@
 గప్పలు పదివేలు చేరుఁగదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('త్తు', '|'), ('ర', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('దె', 'U'), ('ప్ప', '|'), ('లు', '|'), ('గ', '|'), ('జె', '|'), ('ఱు', '|'), ('వు', '|'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('గ', 'U'), ('ప్ప', '|'), ('లు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('చే', 'U'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ఏఱకుమీ కసుగాయలు
 దూఱకుమీ బంధుజనుల దోషము సుమ్మీ
@@ -1137,32 +1074,29 @@
 మీఱకుమీ గురువులాజ్ఞ మేదిని సుమతీ!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('క', '|'), ('సు', '|'), ('గా', 'U'), ('య', '|'), ('లు', '|'), ('దూ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('సు', 'U'), ('మ్మీ', 'U'), ('పా', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('ర', '|'), ('ణ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('మీ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('లా', 'U'), ('జ్ఞ', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>ఒకయూరికి నొక కరణము
 నొక తీర్పరియైనఁ గాక నొగిఁ దఱచైనన్‌
@@ -1170,32 +1104,29 @@
 సకలంబును గొట్టువడక సహజము సుమతీ!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('యూ', 'U'), ('రి', '|'), ('కి', '|'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నొ', '|'), ('క', '|'), ('తీ', 'U'), ('ర్ప', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('నొ', '|'), ('గి', '|'), ('ద', '|'), ('ఱ', '|'), ('చై', 'U'), ('నన్', 'U'), ('గ', '|'), ('క', '|'), ('వి', '|'), ('క', '|'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నె', '|'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డ', '|'), ('క', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>ఒల్లని సతి నొల్లని పతి
 నొల్లని చెలికాని విడువ నొల్లని వాఁడే
@@ -1203,32 +1134,29 @@
 గొల్లండును గొల్లఁడౌనె గుణమున సుమతీ!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('వా', 'U'), ('డే', 'U'), ('గొ', 'U'), ('ల్లం', 'U'), ('డు', '|'), ('కా', 'U'), ('క', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('గొ', 'U'), ('ల్లం', 'U'), ('డు', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('డౌ', 'U'), ('నె', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>ఓడల బండ్లును వచ్చును
 ఓడలు నాబండ్లమీఁద నొప్పుగ వచ్చు\న్‌
@@ -1236,32 +1164,29 @@
 వాడంబడుఁ గలిమి లేమి వసుధను సుమతీ!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ఓ', 'U'), ('డ', '|'), ('లు', '|'), ('నా', 'U'), ('బం', 'U'), ('డ్ల', '|'), ('మీ', 'U'), ('ద', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('వ', '|'), ('చ్చున్', 'U'), ('ఓ', 'U'), ('డ', '|'), ('లు', '|'), ('బం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('వా', 'U'), ('డం', 'U'), ('బ', '|'), ('డు', '|'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('లే', 'U'), ('మి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ను', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>కడు బలవంతుండైనను
 బుడమినిఁ బ్రాయంపుటాలిఁ బుట్టినయింటన్‌
@@ -1269,32 +1194,29 @@
 బడుపుగ నంగడికిఁ దానె పంపుట సుమతీ!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లి', '|'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('యిం', 'U'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('వుం', 'U'), ('డ', '|'), ('ని', 'U'), ('చ్చె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బ', '|'), ('డు', '|'), ('పు', '|'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('కి', '|'), ('దా', 'U'), ('నె', '|'), ('పం', 'U'), ('పు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>కనకపు సింహాసనమున 
 శునకముఁ గూర్చుండఁబెట్టి శుభ లగ్నమునం
@@ -1302,32 +1224,29 @@
 వెనుకటి గుణమేల మాను వినరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('శు', '|'), ('న', '|'), ('క', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('శు', '|'), ('భ', '|'), ('ల', 'U'), ('గ్న', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('టి', '|'), ('గు', '|'), ('ణ', '|'), ('మే', 'U'), ('ల', '|'), ('మా', 'U'), ('ను', '|'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>కప్పకు నొరగాలైనను
 సర్పమునకు రోగమైన సతి తులువైనన్‌
@@ -1335,32 +1254,29 @@
 దప్పదు మఱి దుఃఖమగుట తథ్యము సుమతీ!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ప్ప', '|'), ('కు', '|'), ('నొ', '|'), ('ర', '|'), ('గా', 'U'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('రో', 'U'), ('గ', '|'), ('మై', 'U'), ('న', '|'), ('స', '|'), ('తి', '|'), ('తు', '|'), ('లు', '|'), ('వై', 'U'), ('నన్', 'U'), ('ము', 'U'), ('ప్పు', '|'), ('న', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('ద', 'U'), ('ప్ప', '|'), ('దు', '|'), ('మ', '|'), ('ఱి', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మ', '|'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>కమలములు నీటఁ బాసినఁ
 గమలాప్తుని రశ్మి సోఁకి కమలిన భంగిన్‌
@@ -1368,32 +1284,29 @@
 దమ మిత్రులు శత్రులౌట తథ్యము సుమతీ!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ట', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ప్తు', '|'), ('ని', '|'), ('ర', 'U'), ('శ్మి', '|'), ('సో', 'U'), ('కి', '|'), ('క', '|'), ('మ', '|'), ('లి', '|'), ('న', '|'), ('భం', 'U'), ('గిన్', 'U'), ('ద', '|'), ('మ', '|'), ('త', '|'), ('మ', '|'), ('నె', '|'), ('ల', '|'), ('వు', '|'), ('లు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('ద', '|'), ('మ', '|'), ('మి', 'U'), ('త్రు', '|'), ('లు', '|'), ('శ', 'U'), ('త్రు', '|'), ('లౌ', 'U'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>కరణముఁ గరణము నమ్మిన
 మరణాంతకమౌను గాని మనలేఁడు సుమీ
@@ -1401,32 +1314,29 @@
 మఱి నమ్మక మర్మమీక మనవలె సుమతీ!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('ణాం', 'U'), ('త', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('సు', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ద', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('మ', '|'), ('ఱి', '|'), ('న', 'U'), ('మ్మ', '|'), ('క', '|'), ('మ', '|'), ('ర్మ', '|'), ('మీ', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>కరణముల ననుసరింపక
 విరసంబునఁ దిన్నతిండి వికటించుఁ జుమీ
@@ -1434,32 +1344,29 @@
 పరమేశ్వరు బండియైనఁ బాఱదు సుమతీ!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('క', '|'), ('వి', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('ది', 'U'), ('న్న', '|'), ('తిం', 'U'), ('డి', '|'), ('వి', '|'), ('క', '|'), ('టిం', 'U'), ('చు', '|'), ('జు', '|'), ('మీ', 'U'), ('యి', '|'), ('రు', '|'), ('సు', '|'), ('న', '|'), ('గం', 'U'), ('దె', '|'), ('న', '|'), ('బె', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('బం', 'U'), ('డి', '|'), ('యై', 'U'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>కరణము సాధై యున్నను
 గరి మదముడిఁగినను బాము గఱవకయున్నన్‌
@@ -1467,32 +1374,29 @@
 గర మరుదుగ లెక్కఁగొనరు గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సా', 'U'), ('ధై', 'U'), ('యు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('గ', '|'), ('ఱ', '|'), ('వ', '|'), ('క', '|'), ('యు', '|'), ('న్నన్', 'U'), ('ధ', '|'), ('ర', '|'), ('దే', 'U'), ('లు', '|'), ('మీ', 'U'), ('ట', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>కసుగాయఁ గఱచి చూచిన
 మసలక దనయొగరు గాక మధురంబగునా?
@@ -1500,32 +1404,29 @@
 బసిబాలలఁ బొందువాఁడు పసరము సుమతీ!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('సు', '|'), ('గా', 'U'), ('య', '|'), ('గ', '|'), ('ఱ', '|'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('ద', '|'), ('న', '|'), ('యొ', '|'), ('గ', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('నా', 'U'), ('ప', '|'), ('స', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('యు', '|'), ('వ', '|'), ('తు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('బ', '|'), ('సి', '|'), ('బా', 'U'), ('ల', '|'), ('ల', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>కవిగాని వాని వ్రాఁతయు
 నవరసభావములులేని నాతుల వలంపున్‌
@@ -1533,32 +1434,29 @@
 వివిధాయుధకౌశలంబు వృథరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', 'U'), ('వ్రా', 'U'), ('త', '|'), ('యు', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('లం', 'U'), ('పున్', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('పం', 'U'), ('ది', '|'), ('నే', 'U'), ('య', '|'), ('ని', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('యు', '|'), ('ధ', '|'), ('కౌ', 'U'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('వృ', '|'), ('థ', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>కాదుసుమీ దుస్సంగతి
 పోదుసుమీ కీర్తికాంత పొందినపిదపన్‌
@@ -1566,32 +1464,29 @@
 లేదుసుమీ సతులవలపు లేశము సుమతీ!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('దు', 'U'), ('స్సం', 'U'), ('గ', '|'), ('తి', '|'), ('పో', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('కాం', 'U'), ('త', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('వా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('య', 'U'), ('ప్పి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('లే', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('లే', 'U'), ('శ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>కాముకుఁడు దనిసి విడిచిన
 కోమలిఁ బరవిటుఁడు గవయ గూడుటయెల్లన్‌
@@ -1599,32 +1494,29 @@
 జీమలు వెస మూఁగినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ము', '|'), ('కు', '|'), ('డు', '|'), ('ద', '|'), ('ని', '|'), ('సి', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('బ', '|'), ('ర', '|'), ('వి', '|'), ('టు', '|'), ('డు', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('పి', 'U'), ('ప్పి', '|'), ('కి', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('వె', '|'), ('స', '|'), ('మూ', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>కారణము లేని నగవును
 బేరణమును లేని లేమ పృథివీస్థలిలోఁ
@@ -1632,32 +1524,29 @@
 వీరణములు లేని పెండ్లి వృథరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('ను', '|'), ('బే', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('లే', 'U'), ('ని', '|'), ('లే', 'U'), ('మ', '|'), ('పృ', '|'), ('థి', '|'), ('వీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('లో', 'U'), ('బూ', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('బూ', 'U'), ('రె', '|'), ('యు', '|'), ('వీ', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('వృ', '|'), ('థ', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>కులకాంత తోడనెప్పుడుఁ
 గలహింపకు వట్టితప్పు ఘటియింపకుమీ
@@ -1665,32 +1554,29 @@
 రొలికిన సిరి యింటనుంట నొల్లదు సుమతీ!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('తో', 'U'), ('డ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('కు', '|'), ('వ', 'U'), ('ట్టి', '|'), ('త', 'U'), ('ప్పు', '|'), ('ఘ', '|'), ('టి', '|'), ('యిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('కం', 'U'), ('ట', '|'), ('క', 'U'), ('న్నీ', 'U'), ('రొ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('సి', '|'), ('రి', '|'), ('యిం', 'U'), ('ట', '|'), ('నుం', 'U'), ('ట', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>కూరిమిగల దినములలో
 నేరము లెన్నఁడును గలుగ నేరవు మఱి యా
@@ -1698,32 +1584,29 @@
 నేరములే తోఁచుచుండు నిక్కము సుమతీ!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('గ', '|'), ('ల', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('ను', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వు', '|'), ('మ', '|'), ('ఱి', '|'), ('యా', 'U'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('వి', '|'), ('ర', '|'), ('సం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('తో', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>కొంచెపు నరు సంగతిచే
 నంచితముగఁ గీడు వచ్చు నది యెట్లన్నన్‌
@@ -1731,32 +1614,29 @@
 మంచమునకుఁ జేటువచ్చు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('చె', '|'), ('పు', '|'), ('న', '|'), ('రు', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('చే', 'U'), ('నం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('గీ', 'U'), ('డు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('గిం', 'U'), ('చి', 'U'), ('త్తు', '|'), ('న', 'U'), ('ల్లి', '|'), ('కు', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('జే', 'U'), ('టు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>కొక్కోకమెల్లఁ జదివినఁ
 జక్కనివాఁడైన రాజ చంద్రుండైనన్‌
@@ -1764,32 +1644,29 @@
 చిక్కదురా వారకాంత సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('కొ', 'U'), ('క్కో', 'U'), ('క', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('చం', 'U'), ('ద్రుం', 'U'), ('డై', 'U'), ('నన్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('రొ', 'U'), ('క్కం', 'U'), ('బీ', 'U'), ('య', '|'), ('క', '|'), ('చి', 'U'), ('క్క', '|'), ('దు', '|'), ('రా', 'U'), ('వా', 'U'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>కొఱగాని కొడుకు పుట్టినఁ
 గొఱగామియె కాదు తండ్రి గుణములఁ జెఱచున్‌
@@ -1797,32 +1674,29 @@
 జెఱకునఁ దీపెల్లఁ జెఱచు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('మి', '|'), ('యె', '|'), ('కా', 'U'), ('దు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('జె', '|'), ('ఱ', '|'), ('చున్', 'U'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('తు', '|'), ('ద', '|'), ('వె', 'U'), ('న్ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('దీ', 'U'), ('పె', 'U'), ('ల్ల', '|'), ('జె', '|'), ('ఱ', '|'), ('చు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>కోమలి విశ్వాసంబును
 బాములతోఁ జెలిమి యన్యభామల వలపున్‌
@@ -1830,32 +1704,29 @@
 భూమీశుల నమ్మికలును బొంకుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('మ', '|'), ('లి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('య', 'U'), ('న్య', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('పున్', 'U'), ('వే', 'U'), ('ము', '|'), ('ల', '|'), ('తి', 'U'), ('య్య', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('భూ', 'U'), ('మీ', 'U'), ('శు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మి', '|'), ('క', '|'), ('లు', '|'), ('ను', '|'), ('బొం', 'U'), ('కు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>గడనగల మగనిఁ జూచిన
 నడుగడుగున మడుఁగులిడుదు రతివలు తమలోఁ
@@ -1863,32 +1734,29 @@
 నడపీనుఁగు వచ్చెననుచు నగుదురు సుమతీ!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('డ', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('డు', '|'), ('గు', '|'), ('న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('లి', '|'), ('డు', '|'), ('దు', '|'), ('ర', '|'), ('తి', '|'), ('వ', '|'), ('లు', '|'), ('త', '|'), ('మ', '|'), ('లో', 'U'), ('గ', '|'), ('డ', '|'), ('ను', '|'), ('డు', '|'), ('గు', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('డ', '|'), ('పీ', 'U'), ('ను', '|'), ('గు', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>చింతింపకు గడచినపని
 కింతులు వలతురని నమ్మ కెంతయు మదిలో
@@ -1896,32 +1764,29 @@
 మంతనములుమాను మిదియె మతముర సుమతీ!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('చిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('కు', '|'), ('గ', '|'), ('డ', '|'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('ని', '|'), ('కిం', 'U'), ('తు', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('తు', '|'), ('ర', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నం', 'U'), ('తః', 'U'), ('పు', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మా', 'U'), ('ను', '|'), ('మి', '|'), ('ది', '|'), ('యె', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>చీమలు పెట్టిన పుట్టలు
 పాముల కిరవైనయట్లు పామరుఁడు దగన్‌
@@ -1929,32 +1794,29 @@
 భూమీశుల పాలఁ జేరు భువిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('చీ', 'U'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('పా', 'U'), ('ము', '|'), ('ల', '|'), ('కి', '|'), ('ర', '|'), ('వై', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('ద', '|'), ('గన్', 'U'), ('హే', 'U'), ('మం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('భూ', 'U'), ('మీ', 'U'), ('శు', '|'), ('ల', '|'), ('పా', 'U'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>చుట్టములు గాని వారలు
 చుట్టములము నీ కటంచు సొంపు దలిర్పన్‌
@@ -1962,32 +1824,29 @@
 గట్టిగ ద్రవ్యంబు గలుగఁ గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('సొం', 'U'), ('పు', '|'), ('ద', '|'), ('లి', '|'), ('ర్పన్', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>చేతులకుఁ దొడవు దానము
 భూతల నాథులకుఁ దొడవు బొంకమి ధరలో
@@ -1995,32 +1854,29 @@
 నాతికి మానంబు తొడవు నయముగ సుమతీ!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('బొం', 'U'), ('క', '|'), ('మి', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('నీ', 'U'), ('తి', '|'), ('య', '|'), ('తొ', '|'), ('డ', '|'), ('వె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కి', '|'), ('నా', 'U'), ('తి', '|'), ('కి', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('తొ', '|'), ('డ', '|'), ('వు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>తడవోర్వక యొడలోర్వక
 కడువేగం బడచిపడినఁ గార్యంబగునే
@@ -2028,32 +1884,29 @@
 జెడిపోయిన కార్యమెల్లఁ జేకుఱు సుమతీ!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('డ', '|'), ('వో', 'U'), ('ర్వ', '|'), ('క', '|'), ('యొ', '|'), ('డ', '|'), ('లో', 'U'), ('ర్వ', '|'), ('క', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('చి', '|'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ర్యం', 'U'), ('బ', '|'), ('గు', '|'), ('నే', 'U'), ('త', '|'), ('డ', '|'), ('వో', 'U'), ('ర్చి', '|'), ('న', '|'), ('నొ', '|'), ('డ', '|'), ('లో', 'U'), ('ర్చి', '|'), ('న', '|'), ('జె', '|'), ('డి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('కు', '|'), ('ఱు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>తన కోపమె తన శత్రువు
 తన శాంతమె తనకు రక్ష దయ చుట్టంబౌఁ
@@ -2061,32 +1914,29 @@
 తన దుఃఖమె నరకమండ్రు తథ్యము సుమతీ!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('శ', 'U'), ('త్రు', '|'), ('వు', '|'), ('త', '|'), ('న', '|'), ('శాం', 'U'), ('త', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ద', '|'), ('య', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బౌ', 'U'), ('ద', '|'), ('న', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మె', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మె', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మం', 'U'), ('డ్రు', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>తన యూరి తపసితనమును
 దన పుత్త్రుని విద్య పెంపుఁ దన సతి రూపున్‌
@@ -2094,32 +1944,29 @@
 మనసున వర్ణింపరెట్టి మనుజులు సుమతీ!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యూ', 'U'), ('రి', '|'), ('త', '|'), ('ప', '|'), ('సి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('పు', 'U'), ('త్త్రు', '|'), ('ని', '|'), ('వి', 'U'), ('ద్య', '|'), ('పెం', 'U'), ('పు', '|'), ('ద', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('రూ', 'U'), ('పున్', 'U'), ('ద', '|'), ('న', '|'), ('పె', '|'), ('ర', '|'), ('టి', '|'), ('చె', 'U'), ('ట్టు', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('న', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('రె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>తన కలిమి యింద్ర భోగము
 తన లేమియె సర్వలోక దారిద్ర్యంబు\న్‌
@@ -2127,32 +1974,29 @@
 తను వలచినదియె రంభ తథ్యము సుమతీ!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('లే', 'U'), ('మి', '|'), ('యె', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('దా', 'U'), ('రి', '|'), ('ద్ర్యం', 'U'), ('బున్', 'U'), ('ద', '|'), ('న', '|'), ('చా', 'U'), ('వు', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('ళ', '|'), ('య', '|'), ('ము', '|'), ('త', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('యె', '|'), ('రం', 'U'), ('భ', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>తన వారు లేని చోటను
 జనువించుక లేని చోట జగడము చోటన్‌
@@ -2160,32 +2004,29 @@
 మనుజునకును నిలువఁదగదు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('ను', '|'), ('జ', '|'), ('ను', '|'), ('విం', 'U'), ('చు', '|'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('చో', 'U'), ('టన్', 'U'), ('అ', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('ను', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>తమలము సేయని నోరును
 విమతులతోఁ జెలిమిసేసి వెతఁబడు తెలివిన్‌
@@ -2194,32 +2035,29 @@
 హిమధాముఁడు లేని రాత్రి హీనము సుమతీ!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('వి', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('సే', 'U'), ('సి', '|'), ('వె', '|'), ('త', '|'), ('బ', '|'), ('డు', '|'), ('తె', '|'), ('లి', '|'), ('విన్', 'U'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చ', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('మే', 'U'), ('ను', 'U'), ('న్గ', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('కొ', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('ము', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('రా', 'U'), ('త్రి', '|'), ('హీ', 'U'), ('న', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>తలనుండు విషము ఫణికిని
 వెలయంగాఁ దోఁక నుండు వృశ్చికమునకున్‌
@@ -2227,32 +2065,29 @@
 ఖలునకు నిలువెల్ల విషము గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('ఫ', '|'), ('ణి', '|'), ('కి', '|'), ('ని', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('దో', 'U'), ('క', '|'), ('నుం', 'U'), ('డు', '|'), ('వృ', 'U'), ('శ్చి', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('క', '|'), ('య', '|'), ('న', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('ను', '|'), ('ఖ', '|'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('లు', '|'), ('వె', 'U'), ('ల్ల', '|'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>తలపొడవు ధనముఁ బోసిన
 వెలయాలికి నిజములేదు వివరింపఁగాఁ
@@ -2260,32 +2095,29 @@
 వెలయాలిని నమ్మరాదు వినరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('పొ', '|'), ('డ', '|'), ('వు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('కి', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('బా', 'U'), ('స', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>తలమాసిన నొలుమాసిన
 వలువలు మాసినను బ్రాణవల్లభునైనన్‌
@@ -2293,32 +2125,29 @@
 తిలకింపఁగ భూమిలోనఁ దిరముగ సుమతీ!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('నొ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('నై', 'U'), ('నన్', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('లై', 'U'), ('న', '|'), ('రో', 'U'), ('తు', '|'), ('రు', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('న', '|'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>తాననుభవింప నర్థము
 మానవపతిఁ జేరుఁ గొంత మఱి భూగతమౌఁ
@@ -2326,32 +2155,29 @@
 తేనియ యొరుఁజేరునట్లు తిరముగ సుమతీ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('ప', '|'), ('తి', '|'), ('జే', 'U'), ('రు', '|'), ('గొం', 'U'), ('త', '|'), ('మ', '|'), ('ఱి', '|'), ('భూ', 'U'), ('గ', '|'), ('త', '|'), ('మౌ', 'U'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('నీ', 'U'), ('గ', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('యొ', '|'), ('రు', '|'), ('జే', 'U'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|'), ('తి', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>దగ్గఱ కొండెము చెప్పెడు
 ప్రెగ్గడ పలుకులకు రాజు ప్రియుఁడై మఱి తా
@@ -2359,32 +2185,29 @@
 బొగ్గులకై కల్పతరువుఁ బొడుచుట సుమతీ!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('గ్గ', '|'), ('ఱ', '|'), ('కొం', 'U'), ('డె', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', 'U'), ('ప్రె', 'U'), ('గ్గ', '|'), ('డ', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('జు', 'U'), ('ప్రి', '|'), ('యు', '|'), ('డై', 'U'), ('మ', '|'), ('ఱి', '|'), ('తా', 'U'), ('నె', 'U'), ('గ్గు', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('ల', '|'), ('కై', 'U'), ('క', 'U'), ('ల్ప', '|'), ('త', '|'), ('రు', '|'), ('వు', '|'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>ధనపతి సఖుఁడై యుండియు
 నెనయంగా శివుఁడు భిక్ష మెత్తఁగవలసెన్‌
@@ -2392,32 +2215,29 @@
 దనభాగ్యమె తనకుఁగాక తథ్యము సుమతీ!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ఖు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డి', '|'), ('యు', '|'), ('నె', '|'), ('న', '|'), ('యం', 'U'), ('గా', 'U'), ('శి', '|'), ('వు', '|'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మె', 'U'), ('త్త', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('సెన్', 'U'), ('ద', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కెం', 'U'), ('త', '|'), ('క', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('భా', 'U'), ('గ్య', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>ధీరులకుఁ జేయు మేలది
 సారంబగు నారికేళ సలిలము భంగిన్‌
@@ -2425,32 +2245,29 @@
 భూరి సుఖావహము నగును భువిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ధీ', 'U'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('యు', '|'), ('మే', 'U'), ('ల', '|'), ('ది', '|'), ('సా', 'U'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళ', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('ము', '|'), ('భం', 'U'), ('గిన్', 'U'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('మ', '|'), ('ఱి', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('భూ', 'U'), ('రి', '|'), ('సు', '|'), ('ఖా', 'U'), ('వ', '|'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('గు', '|'), ('ను', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>నడువకుమీ తెరువొక్కటఁ
 గుడువకుమీ శత్రునింటఁ గూరిమి తోడన్‌
@@ -2458,32 +2275,29 @@
 నుడువకుమీ యొరుల మనసు నొవ్వఁగ సుమతీ!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('తె', '|'), ('రు', '|'), ('వొ', 'U'), ('క్క', '|'), ('ట', '|'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('శ', 'U'), ('త్రు', '|'), ('నిం', 'U'), ('ట', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డన్', 'U'), ('ము', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('వ్వ', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>నమ్మకు సుంకరి జూదరి
 నమ్మకు మగసాలివాని నటు వెలయాలిన్‌
@@ -2491,32 +2305,29 @@
 నమ్మకుమీ వామహస్తు నవనిని సుమతీ!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('సుం', 'U'), ('క', '|'), ('రి', '|'), ('జూ', 'U'), ('ద', '|'), ('రి', '|'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మ', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('వా', 'U'), ('ని', '|'), ('న', '|'), ('టు', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లిన్', 'U'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('డి', '|'), ('వా', 'U'), ('ని', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మీ', 'U'), ('వా', 'U'), ('మ', '|'), ('హ', 'U'), ('స్తు', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>నయమునఁ బాలుం ద్రావరు
 భయమున విషమ్మునైన భక్షింతురుగా
@@ -2524,32 +2335,29 @@
 భయమే చూపంగ వలయు బాగుగ సుమతీ!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('లుం', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('రు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('వి', '|'), ('ష', 'U'), ('మ్ము', '|'), ('నై', 'U'), ('న', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('న', '|'), ('య', '|'), ('మెం', 'U'), ('త', '|'), ('దో', 'U'), ('స', '|'), ('కా', 'U'), ('రి', '|'), ('యొ', '|'), ('భ', '|'), ('య', '|'), ('మే', 'U'), ('చూ', 'U'), ('పం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('బా', 'U'), ('గు', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>నరపతులు మేరఁ దప్పినఁ
 దిర మొప్పగ విధవ యింటఁ దీర్పరియైనన్‌
@@ -2557,32 +2365,29 @@
 మరణాంతకమౌను గాని మానదు సుమతీ!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('ప', '|'), ('తు', '|'), ('లు', '|'), ('మే', 'U'), ('ర', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('ది', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వి', '|'), ('ధ', '|'), ('వ', '|'), ('యిం', 'U'), ('ట', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('రి', '|'), ('యై', 'U'), ('నన్', 'U'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('వై', 'U'), ('ది', '|'), ('కు', '|'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('ర', '|'), ('ణాం', 'U'), ('త', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మా', 'U'), ('న', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>నవరస భావాలంకృత
 కవితా గోష్ఠియును మధుర గానంబును దా
@@ -2590,32 +2395,29 @@
 జెవిటికి సంకూదినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('వ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వా', 'U'), ('లం', 'U'), ('కృ', '|'), ('త', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('గో', 'U'), ('ష్ఠి', '|'), ('యు', '|'), ('ను', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('గా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('కెం', 'U'), ('త', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('జె', '|'), ('వి', '|'), ('టి', '|'), ('కి', '|'), ('సం', 'U'), ('కూ', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>నవ్వకుమీ సభ లోపల
 నవ్వకుమీ తల్లిదండ్రి నాథుల తోడన్‌
@@ -2623,32 +2425,29 @@
 నవ్వకుమీ విప్రవరుల నయమిది సుమతీ!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('స', '|'), ('భ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('తో', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('వి', 'U'), ('ప్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('మి', '|'), ('ది', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>నీరే ప్రాణాధారము
 నోరే రసభరితమైన నుడువులకెల్లన్‌
@@ -2656,32 +2455,29 @@
 చీరయె శృంగారమండ్రు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('రే', 'U'), ('ప్రా', 'U'), ('ణా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ము', '|'), ('నో', 'U'), ('రే', 'U'), ('ర', '|'), ('స', '|'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('డు', '|'), ('వు', '|'), ('ల', '|'), ('కె', '|'), ('ల్లన్', 'U'), ('నా', 'U'), ('రి', '|'), ('యె', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('చీ', 'U'), ('ర', '|'), ('యె', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('మం', 'U'), ('డ్రు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>పగ వలదెవ్వరి తోడను
 వగవంగా వలదు లేమి వచ్చిన పిదపన్‌
@@ -2689,32 +2485,29 @@
 మగువకు మనసీయవలదు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('దె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('వ', '|'), ('గ', '|'), ('వం', 'U'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('లే', 'U'), ('మి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('దె', '|'), ('గ', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('కు', '|'), ('మ', '|'), ('న', '|'), ('సీ', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>పతికడకుఁ దన్నుగూర్చిన
 సతికడకును వేల్పుకడకు సద్గురుకడకున్‌
@@ -2722,32 +2515,29 @@
 మతిమంతులు చనరు నీతి మార్గము సుమతీ!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ద', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ను', '|'), ('వే', 'U'), ('ల్పు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('క', '|'), ('డ', '|'), ('కున్', 'U'), ('సు', '|'), ('తు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('రి', 'U'), ('త్త', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తు', '|'), ('లు', '|'), ('చ', '|'), ('న', '|'), ('రు', '|'), ('నీ', 'U'), ('తి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>పనిచేయు నెడల దాసియు
 ననుభవమున రంభ మంత్రి యాలోచనలన్‌
@@ -2755,32 +2545,29 @@
 ననఁ దన కులకాంత యుండ నగురా సుమతీ!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ని', '|'), ('చే', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('ల', '|'), ('దా', 'U'), ('సి', '|'), ('యు', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('రం', 'U'), ('భ', '|'), ('మం', 'U'), ('త్రి', '|'), ('యా', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('లన్', 'U'), ('ద', '|'), ('న', '|'), ('భు', 'U'), ('క్తి', '|'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('న', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('యుం', 'U'), ('డ', '|'), ('న', '|'), ('గు', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>పరనారీసోదరుఁడై
 పరధనముల కాసపడక పరులకు హితుఁడై
@@ -2788,32 +2575,29 @@
 పరులలిగిన నలుగనతఁడు పరముఁడు సుమతీ!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('హి', '|'), ('తు', '|'), ('డై', 'U'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('ద', '|'), ('ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('యు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('న', '|'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('ము', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>పరసతి కూటమిఁ గోరకు
 పరధనముల కాసపడకు పరునెంచకుమీ
@@ -2821,32 +2605,29 @@
 సిరి చెడిఁ జుట్టంబుకడకుఁ జేరకు సుమతీ!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('గో', 'U'), ('ర', '|'), ('కు', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('కు', '|'), ('ప', '|'), ('రు', '|'), ('నెం', 'U'), ('చ', '|'), ('కు', '|'), ('మీ', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('సి', '|'), ('రి', '|'), ('చె', '|'), ('డి', '|'), ('జు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>పరసతుల గోష్ఠినుండిన
 పురుషుడు గాంగేయుఁడైన భువి నిందబడున్‌
@@ -2854,32 +2635,29 @@
 బరుసంగతి నున్న నిందపాలగు సుమతీ!73</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('నుం', 'U'), ('డి', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('గాం', 'U'), ('గే', 'U'), ('యు', '|'), ('డై', 'U'), ('న', '|'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('ద', '|'), ('బ', '|'), ('డున్', 'U'), ('బ', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('సు', '|'), ('శీ', 'U'), ('ల', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('బ', '|'), ('రు', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ను', 'U'), ('న్న', '|'), ('నిం', 'U'), ('ద', '|'), ('పా', 'U'), ('ల', '|'), ('గు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>పరు నాత్మఁ దలఁచు సతి విడు
 మఱుమాటలు పలుకు సుతుల మన్నింపకుమీ
@@ -2887,32 +2665,29 @@
 తఱచుగ సతిఁ గవయఁబోకు తగదుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('స', '|'), ('తి', '|'), ('వి', '|'), ('డు', '|'), ('మ', '|'), ('ఱు', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('వె', '|'), ('ఱ', '|'), ('పె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('భ', '|'), ('టు', '|'), ('నే', 'U'), ('ల', '|'), ('కు', '|'), ('త', '|'), ('ఱ', '|'), ('చు', '|'), ('గ', '|'), ('స', '|'), ('తి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>పరుల కనిష్టము సెప్పకు
 పొరుగిండ్లకుఁ బనులులేక పోవకుమెపుడున్‌
@@ -2920,32 +2695,29 @@
 మెఱిఁగియు బిరుసైన హయమునెక్కకు సుమతీ!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('క', '|'), ('ని', 'U'), ('ష్ట', '|'), ('ము', '|'), ('సె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('కు', '|'), ('మె', '|'), ('పు', '|'), ('డున్', 'U'), ('బ', '|'), ('రు', '|'), ('గ', '|'), ('వి', '|'), ('సి', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('కు', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('యు', '|'), ('బి', '|'), ('రు', '|'), ('సై', 'U'), ('న', '|'), ('హ', '|'), ('య', '|'), ('ము', '|'), ('నె', 'U'), ('క్క', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>పర్వముల సతులఁ గవయకు
 ముర్వీశ్వరు కరుణ నమ్మి యుబ్బకు మదిలో
@@ -2953,32 +2725,29 @@
 నిర్వహణము లేనిచోట నిలువకు సుమతీ!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ల', '|'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('కు', '|'), ('ము', 'U'), ('ర్వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('బ్బ', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('ప', '|'), ('నా', 'U'), ('లి', '|'), ('బెం', 'U'), ('చ', '|'), ('కు', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హ', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>పలు దోమి సేయు విడియము
 తల గడిగిన నాఁటినిద్ర తరుణుల తోడన్‌
@@ -2986,32 +2755,29 @@
 వెల యింతని చెప్పరాదు వినురా సుమతీ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('దో', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('వి', '|'), ('డి', '|'), ('య', '|'), ('ము', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('ని', '|'), ('ద్ర', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('బొ', '|'), ('ల', '|'), ('య', '|'), ('లు', '|'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('వె', '|'), ('ల', '|'), ('యిం', 'U'), ('త', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>పాటెఱుగని పతికొలువును
 గూటంబున కెఱుకపడని కోమలి రతియున్‌
@@ -3019,32 +2785,29 @@
 నేటికి నెదురీఁదినట్టు లెన్నర సుమతీ!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('ను', '|'), ('గూ', 'U'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('బే', 'U'), ('టె', 'U'), ('త్త', '|'), ('జే', 'U'), ('యు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('నె', '|'), ('దు', '|'), ('రీ', 'U'), ('ది', '|'), ('న', 'U'), ('ట్టు', '|'), ('లె', 'U'), ('న్న', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>పాలను గలసిన జలమును
 బాల విధంబుననె యుండుఁ బరికింపంగాఁ
@@ -3052,32 +2815,29 @@
 బాలసుఁడగువాని పొందు వలదుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('బా', 'U'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('నె', '|'), ('యుం', 'U'), ('డు', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('బా', 'U'), ('ల', '|'), ('చ', '|'), ('వి', '|'), ('జె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('బా', 'U'), ('ల', '|'), ('సు', '|'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('పొం', 'U'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>పాలసునకైన యాపద
 జాలింబడి తీర్పఁదగదు సర్వజ్ఞునకున్‌
@@ -3085,32 +2845,29 @@
 మేలెఱుఁగునె మీటుఁగాక మేదిని సుమతీ!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('సు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('యా', 'U'), ('ప', '|'), ('ద', '|'), ('జా', 'U'), ('లిం', 'U'), ('బ', '|'), ('డి', '|'), ('తీ', 'U'), ('ర్ప', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞు', '|'), ('న', '|'), ('కున్', 'U'), ('దే', 'U'), ('ల', 'U'), ('గ్ని', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('మే', 'U'), ('లె', '|'), ('ఱు', '|'), ('గు', '|'), ('నె', '|'), ('మీ', 'U'), ('టు', '|'), ('గా', 'U'), ('క', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>పిలువని పనులకుఁ బోవుట
 కలయని సతిరతియు రాజుగానని కొలువున్‌
@@ -3118,32 +2875,29 @@
 వలవని చెలిమియును జేయవలదుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('పి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('ర', '|'), ('తి', '|'), ('యు', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('కొ', '|'), ('లు', '|'), ('వున్', 'U'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('పే', 'U'), ('రం', 'U'), ('టం', 'U'), ('బు', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('వ', '|'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>పురికిని బ్రాణము కోమటి
 వరికిని బ్రాణంబు నీరు వసుమతి లోన\న్‌
@@ -3151,32 +2905,29 @@
 సిరికిని బ్రాణంబు మగువ సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('వ', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('రు', '|'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('నన్', 'U'), ('గ', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('సి', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>పులిపాలు తెచ్చి యిచ్చిన
 నలవడఁగ గుండెగోసి యఱచే నిడినన్‌
@@ -3184,32 +2935,29 @@
 వెలయాలికిఁ గూర్మి లేదు వినురా సుమతీ!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('లి', '|'), ('పా', 'U'), ('లు', '|'), ('తె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('న', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('గ', '|'), ('గుం', 'U'), ('డె', '|'), ('గో', 'U'), ('సి', '|'), ('య', '|'), ('ఱ', '|'), ('చే', 'U'), ('ని', '|'), ('డి', '|'), ('నన్', 'U'), ('ద', '|'), ('ల', '|'), ('పొ', '|'), ('డు', '|'), ('గు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('కి', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('లే', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>పెట్టిన దినములలోపల
 నట్టడవులకైన వచ్చు నానార్థములున్‌
@@ -3217,32 +2965,29 @@
 గట్టెక్కిన నేమి లేదు గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('ట్ట', '|'), ('డ', '|'), ('వు', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('నా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లున్', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('ని', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('గ', 'U'), ('ట్టె', 'U'), ('క్కి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>పొరుగునఁ బగవాఁడుండిన
 నిరవొందఁగ వ్రాఁతగాఁడె యేలికయైన\న్‌
@@ -3250,32 +2995,29 @@
 గరణాలకు బ్రతుకులేదు గదరా సుమతీ!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('పొ', '|'), ('రు', '|'), ('గు', '|'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('డుం', 'U'), ('డి', '|'), ('న', '|'), ('ని', '|'), ('ర', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('గా', 'U'), ('డె', '|'), ('యే', 'U'), ('లి', '|'), ('క', '|'), ('యై', 'U'), ('నన్', 'U'), ('ధ', '|'), ('ర', '|'), ('గా', 'U'), ('పు', '|'), ('కొం', 'U'), ('డె', '|'), ('మా', 'U'), ('డి', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('ణా', 'U'), ('ల', '|'), ('కు', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>బంగారు కుదువఁ బెట్టకు
 సంగరమునఁ బాఱిపోకు సరసుఁడవైనన్‌
@@ -3283,32 +3025,29 @@
 వెంగలితోఁ జెలిమి వలదు వినురా సుమతీ!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('ఱి', '|'), ('పో', 'U'), ('కు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('నన్', 'U'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('వె', 'U'), ('చ్చ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>బలవంతుఁడ నాకేమని
 పలువురతో నిగ్రహించి పలుకుట మేలా?
@@ -3316,32 +3055,29 @@
 చలి చీమల చేతఁ జిక్కి చావదె సుమతీ!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నా', 'U'), ('కే', 'U'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('ర', '|'), ('తో', 'U'), ('ని', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ట', '|'), ('మే', 'U'), ('లా', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('చ', '|'), ('లి', '|'), ('చీ', 'U'), ('మ', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('జి', 'U'), ('క్కి', '|'), ('చా', 'U'), ('వ', '|'), ('దె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>మండలపతి సముఖంబున
 మెండైన ప్రధానిలేక మెలఁగుట యెల్లన్‌
@@ -3349,32 +3085,29 @@
 తొండము లేకుండినట్టు దోఁచుర సుమతీ!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('మెం', 'U'), ('డై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('ని', '|'), ('లే', 'U'), ('క', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('గొం', 'U'), ('డం', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('పు', '|'), ('టే', 'U'), ('ను', '|'), ('గు', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>మంత్రిగలవాని రాజ్యము
 తంత్రము చెడకుండ నిలచుఁ దఱచుగ ధరలో
@@ -3382,32 +3115,29 @@
 జంత్రపుఁ గీలూడినట్లు జరుగదు సుమతీ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('త్రి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చె', '|'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('చు', '|'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('మం', 'U'), ('త్రి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('జం', 'U'), ('త్ర', '|'), ('పు', '|'), ('గీ', 'U'), ('లూ', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('జ', '|'), ('రు', '|'), ('గ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>మాటకుఁ బ్రాణము సత్యము
 కోటకుఁ బ్రాణంబు సుభటకోటి ధరిత్రిన్‌
@@ -3415,32 +3145,29 @@
 చీటికిఁ బ్రాణంబు వ్రాలు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('కు', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('కో', 'U'), ('ట', '|'), ('కు', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('సు', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిన్', 'U'), ('బో', 'U'), ('టి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('చీ', 'U'), ('టి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', 'U'), ('వ్రా', 'U'), ('లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>మానఘనుఁ డాత్మధృతిఁ జెడి
 హీనుండగువాని నాశ్రయించుట యెల్లన్‌
@@ -3448,32 +3175,29 @@
 నేనుఁగు మెయి దాఁచినట్టు లెఱుగుము సుమతీ!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('న', '|'), ('ఘ', '|'), ('ను', '|'), ('డా', 'U'), ('త్మ', '|'), ('ధృ', '|'), ('తి', '|'), ('జె', '|'), ('డి', '|'), ('హీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('మా', 'U'), ('నె', '|'), ('డు', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నే', 'U'), ('ను', '|'), ('గు', '|'), ('మె', '|'), ('యి', '|'), ('దా', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లె', '|'), ('ఱు', '|'), ('గు', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>రాపొమ్మని పిలువని యా
 భూపాలునిఁ గొల్వ భుక్తి ముక్తులు గలవే?
@@ -3481,32 +3205,29 @@
 జేపుణికిళ్ళాడినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('పొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('యా', 'U'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వే', 'U'), ('దీ', 'U'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('ని', '|'), ('యిం', 'U'), ('ట', '|'), ('ను', '|'), ('జే', 'U'), ('పు', '|'), ('ణి', '|'), ('కి', 'U'), ('ళ్ళా', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>రూపించి పలికి బొంకకు
 ప్రాపగు చుట్టంబు నెగ్గు పలుకకు మదిలోఁ
@@ -3514,32 +3235,29 @@
 పాపపు దేశంబు సొరకు పదిలము సుమతీ!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('రూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('బొం', 'U'), ('క', '|'), ('కు', 'U'), ('ప్రా', 'U'), ('ప', '|'), ('గు', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('నె', 'U'), ('గ్గు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గో', 'U'), ('పిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('కు', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('సొ', '|'), ('ర', '|'), ('కు', '|'), ('ప', '|'), ('ది', '|'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>లావు గలవాని కంటెను
 భావింపఁగ నీతిపరుఁడు బలవంతుఁడౌ
@@ -3547,32 +3265,29 @@
 మావటివాఁడెక్కినట్లు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('లా', 'U'), ('వు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('కం', 'U'), ('టె', '|'), ('ను', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డౌ', 'U'), ('గ్రా', 'U'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('గ', '|'), ('జం', 'U'), ('బు', '|'), ('ను', '|'), ('మా', 'U'), ('వ', '|'), ('టి', '|'), ('వా', 'U'), ('డె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>వఱదైన చేను దున్నకు
 కఱవైనను బంధుజనుల కడ కేఁగకుమీ
@@ -3580,32 +3295,29 @@
 పిఱికికి దళవాయితనముఁ బెట్టకు సుమతీ!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ఱ', '|'), ('దై', 'U'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('దు', 'U'), ('న్న', '|'), ('కు', '|'), ('క', '|'), ('ఱ', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కే', 'U'), ('గ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('మ', '|'), ('ర్మ', '|'), ('ము', '|'), ('సె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('పి', '|'), ('ఱి', '|'), ('కి', '|'), ('కి', '|'), ('ద', '|'), ('ళ', '|'), ('వా', 'U'), ('యి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>వరిపంట లేని యూరును
 దొరయుండని యూరు తోడు దొరకని తెరువున్‌
@@ -3613,32 +3325,29 @@
 నరయంగా రుద్రభూమి యనఁదగు సుమతీ!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రి', '|'), ('పం', 'U'), ('ట', '|'), ('లే', 'U'), ('ని', '|'), ('యూ', 'U'), ('రు', '|'), ('ను', '|'), ('దొ', '|'), ('ర', '|'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('యూ', 'U'), ('రు', '|'), ('తో', 'U'), ('డు', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('ని', '|'), ('తె', '|'), ('రు', '|'), ('వున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('బ', '|'), ('తి', '|'), ('లే', 'U'), ('ని', '|'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('రు', '|'), ('ద్ర', '|'), ('భూ', 'U'), ('మి', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>వినఁదగు నెవ్వరు సెప్పిన
 వినినంతనె వేగపడక వివరింపఁదగున్‌
@@ -3646,32 +3355,29 @@
 మనుజుఁడె పో నీతిపరుఁడు మహిలో సుమతీ!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సె', 'U'), ('ప్పి', '|'), ('న', '|'), ('వి', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('వే', 'U'), ('గ', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('ద', '|'), ('గున్', 'U'), ('గ', '|'), ('ని', '|'), ('క', 'U'), ('ల్ల', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డె', '|'), ('పో', 'U'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>వీడెము సేయని నోరును
 జేడెల యధరామృతంబుఁ జెందని నోరున్‌
@@ -3679,32 +3385,29 @@
 బూడిద కిరవైన పాడు బొందర సుమతీ.</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('వీ', 'U'), ('డె', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('జే', 'U'), ('డె', '|'), ('ల', '|'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('జెం', 'U'), ('ద', '|'), ('ని', '|'), ('నో', 'U'), ('రున్', 'U'), ('బా', 'U'), ('డం', 'U'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('కి', '|'), ('ర', '|'), ('వై', 'U'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('బొం', 'U'), ('ద', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>వెలయాలివలనఁ గూరిమి
 గలుగదు మఱిఁ గలిగెనేని కడతేరదుగా
@@ -3712,32 +3415,29 @@
 బులు మొలవదు మొలిచెనేని బొదలదు సుమతీ!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('దు', '|'), ('మ', '|'), ('ఱి', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('తే', 'U'), ('ర', '|'), ('దు', '|'), ('గా', 'U'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('రు', '|'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('డు', '|'), ('తె', '|'), ('రు', '|'), ('వు', '|'), ('న', '|'), ('బు', '|'), ('లు', '|'), ('మొ', '|'), ('ల', '|'), ('వ', '|'), ('దు', '|'), ('మొ', '|'), ('లి', '|'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('బొ', '|'), ('ద', '|'), ('ల', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>శుభముల నొందని చదువును
 నభినయమును రాగరసము నందని పాటల్‌
@@ -3745,32 +3445,29 @@
 సభమెచ్చని మాటలెల్లఁ జప్పన సుమతీ!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('శు', '|'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('నొం', 'U'), ('ద', '|'), ('ని', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ను', '|'), ('న', '|'), ('భి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('పా', 'U'), ('టల్', 'U'), ('అ', '|'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లే', 'U'), ('ని', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('స', '|'), ('భ', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('ప్ప', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>సరసము విరసము కొఱకే
 పరిపూర్ణసుఖంబు లధిక బాధల కొఱకే
@@ -3778,32 +3475,29 @@
 ధరతగ్గుట హెచ్చుకొఱకె తథ్యము సుమతీ.</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('ప', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('ధి', '|'), ('క', '|'), ('బా', 'U'), ('ధ', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('పె', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('వి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('ధ', '|'), ('ర', '|'), ('త', 'U'), ('గ్గు', '|'), ('ట', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>మేలెంచని మాలిన్యుని
 మాలను నగసాలివాని మంగలి హితుగా
@@ -3811,32 +3505,29 @@
 నేలఁ గలసిపోవుఁగాని నెగడదు సుమతీ.</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('మే', 'U'), ('లెం', 'U'), ('చ', '|'), ('ని', '|'), ('మా', 'U'), ('లి', 'U'), ('న్యు', '|'), ('ని', '|'), ('మా', 'U'), ('ల', '|'), ('ను', '|'), ('న', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('వా', 'U'), ('ని', '|'), ('మం', 'U'), ('గ', '|'), ('లి', '|'), ('హి', '|'), ('తు', '|'), ('గా', 'U'), ('నే', 'U'), ('లి', '|'), ('న', '|'), ('న', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('నే', 'U'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('నె', '|'), ('గ', '|'), ('డ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>స్త్రీలయెడ వాదులాడకు
 బాలురతోఁ జెలిమి సేసి భాషింపకుమీ
@@ -3844,32 +3535,29 @@
 యేలినపతి నిందసేయ కెన్నడు సుమతీ.</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('స్త్రీ', 'U'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('వా', 'U'), ('దు', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('సే', 'U'), ('సి', '|'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('మే', 'U'), ('లై', 'U'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('యే', 'U'), ('లి', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>సిరిదా వచ్చిన వచ్చును
 సలలితముగ నారికేళ సలిలము భంగిన్‌
@@ -3877,32 +3565,29 @@
 కరిమ్రింగిన వెలగపండు కరణిని సుమతీ.</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('దా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళ', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('ము', '|'), ('భం', 'U'), ('గిన్', 'U'), ('సి', '|'), ('రి', '|'), ('దా', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('ను', '|'), ('క', '|'), ('రి', '|'), ('మ్రిం', 'U'), ('గి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('గ', '|'), ('పం', 'U'), ('డు', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>మది నొకని వలచియుండఁగ
 మది చెడి యొక క్రూరవిటుఁడు మానక తిరుగున్‌
@@ -3910,32 +3595,29 @@
 జదువునె యాపంజరమున జగతిని సుమతీ.</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ది', '|'), ('నొ', '|'), ('క', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('చె', '|'), ('డి', '|'), ('యొ', '|'), ('క', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('వి', '|'), ('టు', '|'), ('డు', '|'), ('మా', 'U'), ('న', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గున్', 'U'), ('అ', '|'), ('ది', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('బి', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('నె', '|'), ('యా', 'U'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>పుత్త్రోత్సాహము తండ్రికి
 బుత్త్రుఁడు జన్మించినపుడే పుట్టదు జను లా
@@ -3943,32 +3625,29 @@
 బుత్త్రోత్సాహంబు నాఁడు పొందుర సుమతీ.</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('పు', 'U'), ('త్త్రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ము', '|'), ('తం', 'U'), ('డ్రి', '|'), ('కి', '|'), ('బు', 'U'), ('త్త్రు', '|'), ('డు', '|'), ('జ', 'U'), ('న్మిం', 'U'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డే', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('పు', 'U'), ('త్త్రు', '|'), ('ని', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('బు', 'U'), ('త్త్రో', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బు', '|'), ('నా', 'U'), ('డు', '|'), ('పొం', 'U'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>వెలయాలు సేయు బాసలు
 వెలయఁగ నగసాలిపొందు వెలమల చెలిమియున్‌
@@ -3976,32 +3655,29 @@
 విలసితముగ నమ్మరాదు వినురా సుమతీ.</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లు', '|'), ('సే', 'U'), ('యు', '|'), ('బా', 'U'), ('స', '|'), ('లు', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('న', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('పొం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('మ', '|'), ('ల', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యున్', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గ', 'U'), ('న్న', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('వి', '|'), ('ల', '|'), ('సి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>వేసరఁపు జాతి గానీ
 వీసముఁ దాఁ జేయనట్టి వెంగలి గానీ
@@ -4009,17 +3685,17 @@
 కాసులు గలవాఁడె రాజు గదరా సుమతీ.</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>sumathi</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
         <is>
           <t>[('వే', 'U'), ('స', '|'), ('ర', '|'), ('పు', '|'), ('జా', 'U'), ('తి', '|'), ('గా', 'U'), ('నీ', 'U'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('ట్టి', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('గా', 'U'), ('నీ', 'U'), ('దా', 'U'), ('సి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('గా', 'U'), ('నీ', 'U'), ('కా', 'U'), ('సు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>

--- a/dataset/lg/sumathi.xlsx
+++ b/dataset/lg/sumathi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,39 +434,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>padyam</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>satakam</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీ రాముని దయ చేతను
 నారూఢిగ సకల జనులు నౌరా యనఁగా
@@ -474,29 +477,32 @@
 నోరూఁరఁగ జవులు పుట్ట నుడివెద సుమతీ!</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>[('శ్రీ', 'U'), ('రా', 'U'), ('ము', '|'), ('ని', '|'), ('ద', '|'), ('య', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('నా', 'U'), ('రూ', 'U'), ('ఢి', '|'), ('గ', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('నౌ', 'U'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('గా', 'U'), ('ధా', 'U'), ('రా', 'U'), ('ళ', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('తు', '|'), ('లు', '|'), ('నో', 'U'), ('రూ', 'U'), ('ర', '|'), ('గ', '|'), ('జ', '|'), ('వు', '|'), ('లు', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ను', '|'), ('డి', '|'), ('వె', '|'), ('ద', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>అక్కఱకు రాని చుట్టము
 మ్రొక్కిన వరమీని వేల్పు మోహరమునఁ దా
@@ -504,29 +510,32 @@
 గ్రక్కున విడువంగ వలయుఁ గదరా సుమతీ !</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('క్క', '|'), ('ఱ', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('ని', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('ము', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[('అ', 'U'), ('క్క', '|'), ('ఱ', '|'), ('కు', '|'), ('రా', 'U'), ('ని', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('మీ', 'U'), ('ని', '|'), ('వే', 'U'), ('ల్పు', '|'), ('మో', 'U'), ('హ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('నె', 'U'), ('క్కి', '|'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('ని', '|'), ('గు', 'U'), ('ఱ్ఱ', '|'), ('ము', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('వి', '|'), ('డు', '|'), ('వం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>అడిగిన జీతం బియ్యని
 మిడిమేలపు దొరను గొల్చి మిడుకుట కంటెన్‌
@@ -534,29 +543,32 @@
 మడి దున్నుక బ్రతుక వచ్చు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('జీ', 'U'), ('తం', 'U'), ('బి', 'U'), ('య్య', '|'), ('ని', '|'), ('మి', '|'), ('డి', '|'), ('మే', 'U'), ('ల', '|'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('మి', '|'), ('డు', '|'), ('కు', '|'), ('ట', '|'), ('కం', 'U'), ('టెన్', 'U'), ('వ', '|'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('యె', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టు', '|'), ('క', '|'), ('మ', '|'), ('డి', '|'), ('దు', 'U'), ('న్ను', '|'), ('క', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[('అ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('జీ', 'U'), ('తం', 'U'), ('బి', 'U'), ('య్య', '|'), ('ని', '|'), ('మి', '|'), ('డి', '|'), ('మే', 'U'), ('ల', '|'), ('పు', '|'), ('దొ', '|'), ('ర', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('మి', '|'), ('డు', '|'), ('కు', '|'), ('ట', '|'), ('కం', 'U'), ('టెన్', 'U'), ('వ', '|'), ('డి', '|'), ('గ', '|'), ('ల', '|'), ('యె', 'U'), ('ద్దు', '|'), ('ల', '|'), ('గ', 'U'), ('ట్టు', '|'), ('క', '|'), ('మ', '|'), ('డి', '|'), ('దు', 'U'), ('న్ను', '|'), ('క', '|'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>అడియాస కొలువుఁ గొలువకు
 గుడిమణియము సేయఁబోకు, కుజనులతోడన్‌
@@ -564,29 +576,32 @@
 మడవినిఁ దోడరయ కొంటి నరుగకు సుమతీ!</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>[('అ', '|'), ('డి', '|'), ('యా', 'U'), ('స', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('గొ', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('గు', '|'), ('డి', '|'), ('మ', '|'), ('ణి', '|'), ('య', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('క', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('మ', '|'), ('డ', '|'), ('వి', '|'), ('ని', '|'), ('దో', 'U'), ('డ', '|'), ('ర', '|'), ('య', '|'), ('కొం', 'U'), ('టి', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>అధరము గదలియుఁ గదలక
 మధురములగు భాషలుడిగి మౌనవ్రతుఁడౌ
@@ -594,29 +609,32 @@
 బధిరాంధక శవముఁ జూడఁ బాపము సుమతీ!</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గు', '|'), ('భా', 'U'), ('ష', '|'), ('లు', '|'), ('డి', '|'), ('గి', '|'), ('మౌ', 'U'), ('న', 'U'), ('వ్ర', '|'), ('తు', '|'), ('డౌ', 'U'), ('న', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('రో', 'U'), ('గ', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('బ', '|'), ('ధి', '|'), ('రాం', 'U'), ('ధ', '|'), ('క', '|'), ('శ', '|'), ('వ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('బా', 'U'), ('ప', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[('అ', '|'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('గు', '|'), ('భా', 'U'), ('ష', '|'), ('లు', '|'), ('డి', '|'), ('గి', '|'), ('మౌ', 'U'), ('న', '|'), ('వ్ర', '|'), ('తు', '|'), ('డౌ', 'U'), ('న', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('రో', 'U'), ('గ', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('బ', '|'), ('ధి', '|'), ('రాం', 'U'), ('ధ', '|'), ('క', '|'), ('శ', '|'), ('వ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('బా', 'U'), ('ప', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>అప్పుగొని చేయు విభవము
 ముప్పునఁ బ్రాయంపుటాలు మూర్ఖుని తపము\న్‌
@@ -624,29 +642,32 @@
 దెప్పరమై మీఁదఁ గీడు దెచ్చుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('ని', '|'), ('చే', 'U'), ('యు', '|'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('ము', 'U'), ('ప్పు', '|'), ('న', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లు', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ని', '|'), ('త', '|'), ('ప', '|'), ('మున్', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('ర', '|'), ('య', '|'), ('ని', '|'), ('నృ', '|'), ('పు', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('దె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('మై', 'U'), ('మీ', 'U'), ('ద', '|'), ('గీ', 'U'), ('డు', '|'), ('దె', 'U'), ('చ్చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[('అ', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('ని', '|'), ('చే', 'U'), ('యు', '|'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('ము', 'U'), ('ప్పు', '|'), ('న', '|'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లు', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('ని', '|'), ('త', '|'), ('ప', '|'), ('మున్', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('ర', '|'), ('య', '|'), ('ని', '|'), ('నృ', '|'), ('పు', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('దె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('మై', 'U'), ('మీ', 'U'), ('ద', '|'), ('గీ', 'U'), ('డు', '|'), ('దె', 'U'), ('చ్చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>అప్పిచ్చు వాఁడు వైద్యుఁడు
 నెప్పుడు నెడతెగక పాఱు నేఱును ద్విజుఁడున్‌
@@ -654,29 +675,32 @@
 చొప్పడ కున్నట్టి యూరుఁ జొరకుము సుమతీ!</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>[('అ', 'U'), ('ప్పి', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డు', '|'), ('వై', 'U'), ('ద్యు', '|'), ('డు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నె', '|'), ('డ', '|'), ('తె', '|'), ('గ', '|'), ('క', '|'), ('పా', 'U'), ('ఱు', '|'), ('నే', 'U'), ('ఱు', '|'), ('ను', 'U'), ('ద్వి', '|'), ('జు', '|'), ('డున్', 'U'), ('జొ', 'U'), ('ప్ప', '|'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ర', '|'), ('నుం', 'U'), ('డు', '|'), ('ము', '|'), ('చొ', 'U'), ('ప్ప', '|'), ('డ', '|'), ('కు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('యూ', 'U'), ('రు', '|'), ('జొ', '|'), ('ర', '|'), ('కు', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>అల్లుని మంచితనంబును
 గొల్లని సాహిత్యవిద్య కోమలి నిజము\న్‌
@@ -684,29 +708,32 @@
 దెల్లని కాకులును లేవు తెలియర సుమతీ!</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>[('అ', 'U'), ('ల్లు', '|'), ('ని', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('సా', 'U'), ('హి', 'U'), ('త్య', '|'), ('వి', 'U'), ('ద్య', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ని', '|'), ('జ', '|'), ('మున్', 'U'), ('బొ', 'U'), ('ల్లు', '|'), ('న', '|'), ('దం', 'U'), ('చి', '|'), ('న', '|'), ('బి', 'U'), ('య్య', '|'), ('ము', '|'), ('దె', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కా', 'U'), ('కు', '|'), ('లు', '|'), ('ను', '|'), ('లే', 'U'), ('వు', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>ఆఁకొన్న కూడె యమృతము
 తాఁకొంకక నిచ్చు వాఁడె దాత ధరిత్రి\న్‌
@@ -714,29 +741,32 @@
 తేఁకువ కల వాఁడె వంశతిలకుఁడు సుమతీ!</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>[('ఆ', 'U'), ('కొ', 'U'), ('న్న', '|'), ('కూ', 'U'), ('డె', '|'), ('య', '|'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('తా', 'U'), ('కొం', 'U'), ('క', '|'), ('క', '|'), ('ని', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('డె', '|'), ('దా', 'U'), ('త', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిన్', 'U'), ('సో', 'U'), ('కో', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('డె', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('తే', 'U'), ('కు', '|'), ('వ', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('వం', 'U'), ('శ', '|'), ('తి', '|'), ('ల', '|'), ('కు', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>ఆఁకలి యుడుగని కుడుపును
 వేఁకటియగు లంజ పడుపు విడువని బ్రతుకు\న్‌
@@ -744,29 +774,32 @@
 మేఁకల పాఁడియును రోఁత మేదిని సుమతీ!</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>vruttamu</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>sumathi</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('కు', '|'), ('డు', '|'), ('పు', '|'), ('ను', '|'), ('వే', 'U'), ('క', '|'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('లం', 'U'), ('జ', '|'), ('ప', '|'), ('డు', '|'), ('పు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('ని', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కున్', 'U'), ('బ్రా', 'U'), ('కొ', 'U'), ('న్న', '|'), ('నూ', 'U'), ('తి', '|'), ('యు', '|'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('మే', 'U'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('డి', '|'), ('యు', '|'), ('ను', '|'), ('రో', 'U'), ('త', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[('ఆ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('కు', '|'), ('డు', '|'), ('పు', '|'), ('ను', '|'), ('వే', 'U'), ('క', '|'), ('టి', '|'), ('య', '|'), ('గు', '|'), ('లం', 'U'), ('జ', '|'), ('ప', '|'), ('డు', '|'), ('పు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('ని', '|'), ('బ్ర', '|'), ('తు', '|'), ('కున్', 'U'), ('బ్రా', 'U'), ('కొ', 'U'), ('న్న', '|'), ('నూ', 'U'), ('తి', '|'), ('యు', '|'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('మే', 'U'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('డి', '|'), ('యు', '|'), ('ను', '|'), ('రో', 'U'), ('త', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>ఇచ్చునదె విద్య రణమునఁ
 జొచ్చునదే మగతనంబు సుకవీశ్వరులున్‌
@@ -774,29 +807,32 @@
 వచ్చునదే కీడు సుమ్ము వసుధను సుమతీ!</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>[('ఇ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దె', '|'), ('వి', 'U'), ('ద్య', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దే', 'U'), ('మ', '|'), ('గ', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('సు', '|'), ('క', '|'), ('వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('లున్', 'U'), ('మె', 'U'), ('చ్చు', '|'), ('న', '|'), ('దె', '|'), ('నే', 'U'), ('ర్పు', '|'), ('వా', 'U'), ('దు', '|'), ('కు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('దే', 'U'), ('కీ', 'U'), ('డు', '|'), ('సు', 'U'), ('మ్ము', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ను', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>ఇమ్ముగఁ జదువని నోరును
 'నమ్మా' యని పిలిచి యన్న మడుగని నోరు\న్‌
@@ -804,29 +840,32 @@
 గుమ్మరి మను ద్రవ్వినట్టి గుంటర సుమతీ!</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>[('ఇ', 'U'), ('మ్ము', '|'), ('గ', '|'), ('జ', '|'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('న', 'U'), ('మ్మా', 'U'), ('య', '|'), ('ని', '|'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('య', 'U'), ('న్న', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('ని', '|'), ('నో', 'U'), ('రున్', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('గు', 'U'), ('మ్మ', '|'), ('రి', '|'), ('మ', '|'), ('ను', '|'), ('ద్ర', 'U'), ('వ్వి', '|'), ('న', 'U'), ('ట్టి', '|'), ('గుం', 'U'), ('ట', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>ఉడుముండదె నూఱేండ్లును
 బడియుండదె పేర్మిఁ బాము పదినూఱేండ్లున్‌
@@ -834,29 +873,32 @@
 కడు నిలఁ బురుషార్థపరుఁడు గావలె సుమతీ!</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>[('ఉ', '|'), ('డు', '|'), ('ముం', 'U'), ('డ', '|'), ('దె', '|'), ('నూ', 'U'), ('ఱేం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('బ', '|'), ('డి', '|'), ('యుం', 'U'), ('డ', '|'), ('దె', '|'), ('పే', 'U'), ('ర్మి', '|'), ('బా', 'U'), ('ము', '|'), ('ప', '|'), ('ది', '|'), ('నూ', 'U'), ('ఱేం', 'U'), ('డ్లున్', 'U'), ('మ', '|'), ('డు', '|'), ('వు', '|'), ('న', '|'), ('గొ', 'U'), ('క్కె', '|'), ('ర', '|'), ('యుం', 'U'), ('డ', '|'), ('దె', '|'), ('క', '|'), ('డు', '|'), ('ని', '|'), ('ల', '|'), ('బు', '|'), ('రు', '|'), ('షా', 'U'), ('ర్థ', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('వ', '|'), ('లె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>ఉత్తమ గుణములు నీచున
 కెత్తెఱఁగున గలుగ నేర్చు నెయ్యెడలం దా
@@ -864,29 +906,32 @@
 నిత్తడి బంగారమగునె యిలలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>[('ఉ', 'U'), ('త్త', '|'), ('మ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('చు', '|'), ('న', '|'), ('కె', 'U'), ('త్తె', '|'), ('ఱ', '|'), ('గు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నె', 'U'), ('య్యె', '|'), ('డ', '|'), ('లం', 'U'), ('దా', 'U'), ('నె', 'U'), ('త్తి', 'U'), ('చ్చి', '|'), ('క', '|'), ('ఱ', '|'), ('గి', '|'), ('పో', 'U'), ('సి', '|'), ('న', '|'), ('ని', 'U'), ('త్త', '|'), ('డి', '|'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('యి', '|'), ('ల', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>ఉదకము ద్రావెడు హయమును
 మదమున నుప్పొంగుచుండు మత్తేభంబున్‌
@@ -894,29 +939,32 @@
 జదువని యా నీచుఁ జేరఁ జనకుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('వె', '|'), ('డు', '|'), ('హ', '|'), ('య', '|'), ('ము', '|'), ('ను', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('మ', 'U'), ('త్తే', 'U'), ('భం', 'U'), ('బున్', 'U'), ('మొ', '|'), ('ద', '|'), ('వు', '|'), ('క', '|'), ('డ', '|'), ('ను', 'U'), ('న్న', '|'), ('వృ', '|'), ('ష', '|'), ('భ', '|'), ('ము', '|'), ('జ', '|'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('యా', 'U'), ('నీ', 'U'), ('చు', '|'), ('జే', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>ఉపకారికి నుపకారము
 విపరీతము గాదు సేయ వివరింపంగా
@@ -924,29 +972,32 @@
 నెపమెన్నక సేయువాఁడు నేర్పరి సుమతీ!</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>[('ఉ', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('కి', '|'), ('ను', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('ప', '|'), ('రీ', 'U'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('సే', 'U'), ('య', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('న', '|'), ('ప', '|'), ('కా', 'U'), ('రి', '|'), ('కి', '|'), ('ను', '|'), ('ప', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నె', '|'), ('ప', '|'), ('మె', 'U'), ('న్న', '|'), ('క', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>ఉపమింప మొదలు తియ్యన
 కపటం బెడనెడను జెఱకు కైవడి నేపో
@@ -954,29 +1005,32 @@
 గపటపు దుర్జాతి పొందు గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>[('ఉ', '|'), ('ప', '|'), ('మిం', 'U'), ('ప', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('తి', 'U'), ('య్య', '|'), ('న', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బె', '|'), ('డ', '|'), ('నె', '|'), ('డ', '|'), ('ను', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('కై', 'U'), ('వ', '|'), ('డి', '|'), ('నే', 'U'), ('పో', 'U'), ('నె', '|'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('ను', '|'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('ట', '|'), ('గ', '|'), ('ప', '|'), ('ట', '|'), ('పు', '|'), ('దు', 'U'), ('ర్జా', 'U'), ('తి', '|'), ('పొం', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>ఎప్పటి కెయ్యది ప్రస్తుత
 మప్పటి కా మాటలాడి యన్యుల మనముల్‌
@@ -984,29 +1038,32 @@
 తప్పించుక తిరుగువాఁడు ధన్యుడు సుమతీ!</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('ఎ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కె', 'U'), ('య్య', '|'), ('ది', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కా', 'U'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('య', 'U'), ('న్యు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('ముల్', 'U'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('క', '|'), ('తా', 'U'), ('నొ', 'U'), ('వ్వ', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[('ఎ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కె', 'U'), ('య్య', '|'), ('ది', '|'), ('ప్ర', 'U'), ('స్తు', '|'), ('త', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కా', 'U'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డి', '|'), ('య', 'U'), ('న్యు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('ముల్', 'U'), ('నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('క', '|'), ('తా', 'U'), ('నొ', 'U'), ('వ్వ', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>ఎప్పుడుఁ దప్పులు వెదకెడు
 నప్పురుషునిఁ గొల్వఁగూడ దది యెట్లన్నన్‌
@@ -1014,29 +1071,32 @@
 గప్ప వసించిన విధంబు గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ద', 'U'), ('ప్పు', '|'), ('లు', '|'), ('వె', '|'), ('ద', '|'), ('కె', '|'), ('డు', '|'), ('న', 'U'), ('ప్పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('స', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('నీ', 'U'), ('డ', '|'), ('ను', '|'), ('గ', 'U'), ('ప్ప', '|'), ('వ', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>ఎప్పుడు సంపద కలిగిన
 నప్పుడె బంధువులు వత్తురది యెట్లన్నన్‌
@@ -1044,29 +1104,32 @@
 గప్పలు పదివేలు చేరుఁగదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('త్తు', '|'), ('ర', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('దె', 'U'), ('ప్ప', '|'), ('లు', '|'), ('గ', '|'), ('జె', '|'), ('ఱు', '|'), ('వు', '|'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('గ', 'U'), ('ప్ప', '|'), ('లు', '|'), ('ప', '|'), ('ది', '|'), ('వే', 'U'), ('లు', '|'), ('చే', 'U'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>ఏఱకుమీ కసుగాయలు
 దూఱకుమీ బంధుజనుల దోషము సుమ్మీ
@@ -1074,29 +1137,32 @@
 మీఱకుమీ గురువులాజ్ఞ మేదిని సుమతీ!</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>[('ఏ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('క', '|'), ('సు', '|'), ('గా', 'U'), ('య', '|'), ('లు', '|'), ('దూ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('సు', 'U'), ('మ్మీ', 'U'), ('పా', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('ర', '|'), ('ణ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('మీ', 'U'), ('ఱ', '|'), ('కు', '|'), ('మీ', 'U'), ('గు', '|'), ('రు', '|'), ('వు', '|'), ('లా', 'U'), ('జ్ఞ', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>ఒకయూరికి నొక కరణము
 నొక తీర్పరియైనఁ గాక నొగిఁ దఱచైనన్‌
@@ -1104,29 +1170,32 @@
 సకలంబును గొట్టువడక సహజము సుమతీ!</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('యూ', 'U'), ('రి', '|'), ('కి', '|'), ('నొ', '|'), ('క', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('నొ', '|'), ('క', '|'), ('తీ', 'U'), ('ర్ప', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('నొ', '|'), ('గి', '|'), ('ద', '|'), ('ఱ', '|'), ('చై', 'U'), ('నన్', 'U'), ('గ', '|'), ('క', '|'), ('వి', '|'), ('క', '|'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('నె', '|'), ('స', '|'), ('క', '|'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('గొ', 'U'), ('ట్టు', '|'), ('వ', '|'), ('డ', '|'), ('క', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>ఒల్లని సతి నొల్లని పతి
 నొల్లని చెలికాని విడువ నొల్లని వాఁడే
@@ -1134,29 +1203,32 @@
 గొల్లండును గొల్లఁడౌనె గుణమున సుమతీ!</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>[('ఒ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('వా', 'U'), ('డే', 'U'), ('గొ', 'U'), ('ల్లం', 'U'), ('డు', '|'), ('కా', 'U'), ('క', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('గొ', 'U'), ('ల్లం', 'U'), ('డు', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('డౌ', 'U'), ('నె', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>ఓడల బండ్లును వచ్చును
 ఓడలు నాబండ్లమీఁద నొప్పుగ వచ్చు\న్‌
@@ -1164,29 +1236,32 @@
 వాడంబడుఁ గలిమి లేమి వసుధను సుమతీ!</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>[('ఓ', 'U'), ('డ', '|'), ('ల', '|'), ('బం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('ఓ', 'U'), ('డ', '|'), ('లు', '|'), ('నా', 'U'), ('బం', 'U'), ('డ్ల', '|'), ('మీ', 'U'), ('ద', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('వ', '|'), ('చ్చున్', 'U'), ('ఓ', 'U'), ('డ', '|'), ('లు', '|'), ('బం', 'U'), ('డ్లు', '|'), ('ను', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('వా', 'U'), ('డం', 'U'), ('బ', '|'), ('డు', '|'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('లే', 'U'), ('మి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('ను', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>కడు బలవంతుండైనను
 బుడమినిఁ బ్రాయంపుటాలిఁ బుట్టినయింటన్‌
@@ -1194,29 +1269,32 @@
 బడుపుగ నంగడికిఁ దానె పంపుట సుమతీ!</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లి', '|'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('యిం', 'U'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('వుం', 'U'), ('డ', '|'), ('ని', 'U'), ('చ్చె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బ', '|'), ('డు', '|'), ('పు', '|'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('కి', '|'), ('దా', 'U'), ('నె', '|'), ('పం', 'U'), ('పు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[('క', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('బ్రా', 'U'), ('యం', 'U'), ('పు', '|'), ('టా', 'U'), ('లి', '|'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('యిం', 'U'), ('టన్', 'U'), ('ద', '|'), ('డ', '|'), ('వుం', 'U'), ('డ', '|'), ('ని', 'U'), ('చ్చె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', '|'), ('బ', '|'), ('డు', '|'), ('పు', '|'), ('గ', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('కి', '|'), ('దా', 'U'), ('నె', '|'), ('పం', 'U'), ('పు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>కనకపు సింహాసనమున 
 శునకముఁ గూర్చుండఁబెట్టి శుభ లగ్నమునం
@@ -1224,29 +1302,32 @@
 వెనుకటి గుణమేల మాను వినరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>[('క', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('శు', '|'), ('న', '|'), ('క', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('శు', '|'), ('భ', '|'), ('ల', 'U'), ('గ్న', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('న', '|'), ('ర', '|'), ('గ', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('వె', '|'), ('ను', '|'), ('క', '|'), ('టి', '|'), ('గు', '|'), ('ణ', '|'), ('మే', 'U'), ('ల', '|'), ('మా', 'U'), ('ను', '|'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>కప్పకు నొరగాలైనను
 సర్పమునకు రోగమైన సతి తులువైనన్‌
@@ -1254,29 +1335,32 @@
 దప్పదు మఱి దుఃఖమగుట తథ్యము సుమతీ!</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>[('క', 'U'), ('ప్ప', '|'), ('కు', '|'), ('నొ', '|'), ('ర', '|'), ('గా', 'U'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('రో', 'U'), ('గ', '|'), ('మై', 'U'), ('న', '|'), ('స', '|'), ('తి', '|'), ('తు', '|'), ('లు', '|'), ('వై', 'U'), ('నన్', 'U'), ('ము', 'U'), ('ప్పు', '|'), ('న', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('ద', 'U'), ('ప్ప', '|'), ('దు', '|'), ('మ', '|'), ('ఱి', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మ', '|'), ('గు', '|'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>కమలములు నీటఁ బాసినఁ
 గమలాప్తుని రశ్మి సోఁకి కమలిన భంగిన్‌
@@ -1284,29 +1368,32 @@
 దమ మిత్రులు శత్రులౌట తథ్యము సుమతీ!</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ట', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ప్తు', '|'), ('ని', '|'), ('ర', 'U'), ('శ్మి', '|'), ('సో', 'U'), ('కి', '|'), ('క', '|'), ('మ', '|'), ('లి', '|'), ('న', '|'), ('భం', 'U'), ('గిన్', 'U'), ('ద', '|'), ('మ', '|'), ('త', '|'), ('మ', '|'), ('నె', '|'), ('ల', '|'), ('వు', '|'), ('లు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('ద', '|'), ('మ', '|'), ('మి', 'U'), ('త్రు', '|'), ('లు', '|'), ('శ', 'U'), ('త్రు', '|'), ('లౌ', 'U'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('ట', '|'), ('బా', 'U'), ('సి', '|'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లా', 'U'), ('ప్తు', '|'), ('ని', '|'), ('ర', 'U'), ('శ్మి', '|'), ('సో', 'U'), ('కి', '|'), ('క', '|'), ('మ', '|'), ('లి', '|'), ('న', '|'), ('భం', 'U'), ('గిన్', 'U'), ('ద', '|'), ('మ', '|'), ('త', '|'), ('మ', '|'), ('నె', '|'), ('ల', '|'), ('వు', '|'), ('లు', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('ద', '|'), ('మ', '|'), ('మి', '|'), ('త్రు', '|'), ('లు', '|'), ('శ', '|'), ('త్రు', '|'), ('లౌ', 'U'), ('ట', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>కరణముఁ గరణము నమ్మిన
 మరణాంతకమౌను గాని మనలేఁడు సుమీ
@@ -1314,29 +1401,32 @@
 మఱి నమ్మక మర్మమీక మనవలె సుమతీ!</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('ణాం', 'U'), ('త', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('సు', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ద', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('మ', '|'), ('ఱి', '|'), ('న', 'U'), ('మ్మ', '|'), ('క', '|'), ('మ', '|'), ('ర్మ', '|'), ('మీ', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('మ', '|'), ('ర', '|'), ('ణాం', 'U'), ('త', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('సు', '|'), ('మీ', 'U'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ద', '|'), ('న', '|'), ('స', '|'), ('రి', '|'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('మ', '|'), ('ఱి', '|'), ('న', 'U'), ('మ్మ', '|'), ('క', '|'), ('మ', 'U'), ('ర్మ', '|'), ('మీ', 'U'), ('క', '|'), ('మ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>కరణముల ననుసరింపక
 విరసంబునఁ దిన్నతిండి వికటించుఁ జుమీ
@@ -1344,29 +1434,32 @@
 పరమేశ్వరు బండియైనఁ బాఱదు సుమతీ!</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('క', '|'), ('వి', '|'), ('ర', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('ది', 'U'), ('న్న', '|'), ('తిం', 'U'), ('డి', '|'), ('వి', '|'), ('క', '|'), ('టిం', 'U'), ('చు', '|'), ('జు', '|'), ('మీ', 'U'), ('యి', '|'), ('రు', '|'), ('సు', '|'), ('న', '|'), ('గం', 'U'), ('దె', '|'), ('న', '|'), ('బె', 'U'), ('ట్ట', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('బం', 'U'), ('డి', '|'), ('యై', 'U'), ('న', '|'), ('బా', 'U'), ('ఱ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>కరణము సాధై యున్నను
 గరి మదముడిఁగినను బాము గఱవకయున్నన్‌
@@ -1374,29 +1467,32 @@
 గర మరుదుగ లెక్కఁగొనరు గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>[('క', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సా', 'U'), ('ధై', 'U'), ('యు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('గ', '|'), ('ఱ', '|'), ('వ', '|'), ('క', '|'), ('యు', '|'), ('న్నన్', 'U'), ('ధ', '|'), ('ర', '|'), ('దే', 'U'), ('లు', '|'), ('మీ', 'U'), ('ట', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>కసుగాయఁ గఱచి చూచిన
 మసలక దనయొగరు గాక మధురంబగునా?
@@ -1404,29 +1500,32 @@
 బసిబాలలఁ బొందువాఁడు పసరము సుమతీ!</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>[('క', '|'), ('సు', '|'), ('గా', 'U'), ('య', '|'), ('గ', '|'), ('ఱ', '|'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('ద', '|'), ('న', '|'), ('యొ', '|'), ('గ', '|'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('నా', 'U'), ('ప', '|'), ('స', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('యు', '|'), ('వ', '|'), ('తు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('బ', '|'), ('సి', '|'), ('బా', 'U'), ('ల', '|'), ('ల', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>కవిగాని వాని వ్రాఁతయు
 నవరసభావములులేని నాతుల వలంపున్‌
@@ -1434,29 +1533,32 @@
 వివిధాయుధకౌశలంబు వృథరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', 'U'), ('వ్రా', 'U'), ('త', '|'), ('యు', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('లం', 'U'), ('పున్', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('పం', 'U'), ('ది', '|'), ('నే', 'U'), ('య', '|'), ('ని', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('యు', '|'), ('ధ', '|'), ('కౌ', 'U'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('వృ', '|'), ('థ', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[('క', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('వ్రా', 'U'), ('త', '|'), ('యు', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('నా', 'U'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('లం', 'U'), ('పున్', 'U'), ('ద', '|'), ('వి', '|'), ('లి', '|'), ('చ', '|'), ('ను', '|'), ('పం', 'U'), ('ది', '|'), ('నే', 'U'), ('య', '|'), ('ని', '|'), ('వి', '|'), ('వి', '|'), ('ధా', 'U'), ('యు', '|'), ('ధ', '|'), ('కౌ', 'U'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('వృ', '|'), ('థ', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>కాదుసుమీ దుస్సంగతి
 పోదుసుమీ కీర్తికాంత పొందినపిదపన్‌
@@ -1464,29 +1566,32 @@
 లేదుసుమీ సతులవలపు లేశము సుమతీ!</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>[('కా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('దు', 'U'), ('స్సం', 'U'), ('గ', '|'), ('తి', '|'), ('పో', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('కాం', 'U'), ('త', '|'), ('పొం', 'U'), ('ది', '|'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('వా', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('య', 'U'), ('ప్పి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('లే', 'U'), ('దు', '|'), ('సు', '|'), ('మీ', 'U'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('లే', 'U'), ('శ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>కాముకుఁడు దనిసి విడిచిన
 కోమలిఁ బరవిటుఁడు గవయ గూడుటయెల్లన్‌
@@ -1494,29 +1599,32 @@
 జీమలు వెస మూఁగినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>[('కా', 'U'), ('ము', '|'), ('కు', '|'), ('డు', '|'), ('ద', '|'), ('ని', '|'), ('సి', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('బ', '|'), ('ర', '|'), ('వి', '|'), ('టు', '|'), ('డు', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('పి', 'U'), ('ప్పి', '|'), ('కి', '|'), ('జీ', 'U'), ('మ', '|'), ('లు', '|'), ('వె', '|'), ('స', '|'), ('మూ', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>కారణము లేని నగవును
 బేరణమును లేని లేమ పృథివీస్థలిలోఁ
@@ -1524,29 +1632,32 @@
 వీరణములు లేని పెండ్లి వృథరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>[('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('వు', '|'), ('ను', '|'), ('బే', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('ను', '|'), ('లే', 'U'), ('ని', '|'), ('లే', 'U'), ('మ', '|'), ('పృ', '|'), ('థి', '|'), ('వీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('లో', 'U'), ('బూ', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('బూ', 'U'), ('రె', '|'), ('యు', '|'), ('వీ', 'U'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('వృ', '|'), ('థ', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>కులకాంత తోడనెప్పుడుఁ
 గలహింపకు వట్టితప్పు ఘటియింపకుమీ
@@ -1554,29 +1665,32 @@
 రొలికిన సిరి యింటనుంట నొల్లదు సుమతీ!</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>[('కు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('తో', 'U'), ('డ', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('హిం', 'U'), ('ప', '|'), ('కు', '|'), ('వ', 'U'), ('ట్టి', '|'), ('త', 'U'), ('ప్పు', '|'), ('ఘ', '|'), ('టి', '|'), ('యిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠి', '|'), ('కం', 'U'), ('ట', '|'), ('క', 'U'), ('న్నీ', 'U'), ('రొ', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('సి', '|'), ('రి', '|'), ('యిం', 'U'), ('ట', '|'), ('నుం', 'U'), ('ట', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>కూరిమిగల దినములలో
 నేరము లెన్నఁడును గలుగ నేరవు మఱి యా
@@ -1584,29 +1698,32 @@
 నేరములే తోఁచుచుండు నిక్కము సుమతీ!</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>[('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('గ', '|'), ('ల', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లె', 'U'), ('న్న', '|'), ('డు', '|'), ('ను', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వు', '|'), ('మ', '|'), ('ఱి', '|'), ('యా', 'U'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('వి', '|'), ('ర', '|'), ('సం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లే', 'U'), ('తో', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>కొంచెపు నరు సంగతిచే
 నంచితముగఁ గీడు వచ్చు నది యెట్లన్నన్‌
@@ -1614,29 +1731,32 @@
 మంచమునకుఁ జేటువచ్చు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>[('కొం', 'U'), ('చె', '|'), ('పు', '|'), ('న', '|'), ('రు', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('చే', 'U'), ('నం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('గీ', 'U'), ('డు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ది', '|'), ('యె', 'U'), ('ట్ల', '|'), ('న్నన్', 'U'), ('గిం', 'U'), ('చి', 'U'), ('త్తు', '|'), ('న', 'U'), ('ల్లి', '|'), ('కు', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('జే', 'U'), ('టు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>కొక్కోకమెల్లఁ జదివినఁ
 జక్కనివాఁడైన రాజ చంద్రుండైనన్‌
@@ -1644,29 +1764,32 @@
 చిక్కదురా వారకాంత సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>[('కొ', 'U'), ('క్కో', 'U'), ('క', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ది', '|'), ('వి', '|'), ('న', '|'), ('జ', 'U'), ('క్క', '|'), ('ని', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('చం', 'U'), ('ద్రుం', 'U'), ('డై', 'U'), ('నన్', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('రొ', 'U'), ('క్కం', 'U'), ('బీ', 'U'), ('య', '|'), ('క', '|'), ('చి', 'U'), ('క్క', '|'), ('దు', '|'), ('రా', 'U'), ('వా', 'U'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>కొఱగాని కొడుకు పుట్టినఁ
 గొఱగామియె కాదు తండ్రి గుణములఁ జెఱచున్‌
@@ -1674,29 +1797,32 @@
 జెఱకునఁ దీపెల్లఁ జెఱచు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>[('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('మి', '|'), ('యె', '|'), ('కా', 'U'), ('దు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('జె', '|'), ('ఱ', '|'), ('చున్', 'U'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('తు', '|'), ('ద', '|'), ('వె', 'U'), ('న్ను', '|'), ('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('జె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('దీ', 'U'), ('పె', 'U'), ('ల్ల', '|'), ('జె', '|'), ('ఱ', '|'), ('చు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>కోమలి విశ్వాసంబును
 బాములతోఁ జెలిమి యన్యభామల వలపున్‌
@@ -1704,29 +1830,32 @@
 భూమీశుల నమ్మికలును బొంకుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>[('కో', 'U'), ('మ', '|'), ('లి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('య', 'U'), ('న్య', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('వ', '|'), ('ల', '|'), ('పున్', 'U'), ('వే', 'U'), ('ము', '|'), ('ల', '|'), ('తి', 'U'), ('య్య', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('భూ', 'U'), ('మీ', 'U'), ('శు', '|'), ('ల', '|'), ('న', 'U'), ('మ్మి', '|'), ('క', '|'), ('లు', '|'), ('ను', '|'), ('బొం', 'U'), ('కు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>గడనగల మగనిఁ జూచిన
 నడుగడుగున మడుఁగులిడుదు రతివలు తమలోఁ
@@ -1734,29 +1863,32 @@
 నడపీనుఁగు వచ్చెననుచు నగుదురు సుమతీ!</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>[('గ', '|'), ('డ', '|'), ('న', '|'), ('గ', '|'), ('ల', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('డు', '|'), ('గు', '|'), ('న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('లి', '|'), ('డు', '|'), ('దు', '|'), ('ర', '|'), ('తి', '|'), ('వ', '|'), ('లు', '|'), ('త', '|'), ('మ', '|'), ('లో', 'U'), ('గ', '|'), ('డ', '|'), ('ను', '|'), ('డు', '|'), ('గు', '|'), ('మ', '|'), ('గ', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('డ', '|'), ('పీ', 'U'), ('ను', '|'), ('గు', '|'), ('వ', 'U'), ('చ్చె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('న', '|'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>చింతింపకు గడచినపని
 కింతులు వలతురని నమ్మ కెంతయు మదిలో
@@ -1764,29 +1896,32 @@
 మంతనములుమాను మిదియె మతముర సుమతీ!</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>[('చిం', 'U'), ('తిం', 'U'), ('ప', '|'), ('కు', '|'), ('గ', '|'), ('డ', '|'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('ని', '|'), ('కిం', 'U'), ('తు', '|'), ('లు', '|'), ('వ', '|'), ('ల', '|'), ('తు', '|'), ('ర', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('కెం', 'U'), ('త', '|'), ('యు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నం', 'U'), ('తః', 'U'), ('పు', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మా', 'U'), ('ను', '|'), ('మి', '|'), ('ది', '|'), ('యె', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>చీమలు పెట్టిన పుట్టలు
 పాముల కిరవైనయట్లు పామరుఁడు దగన్‌
@@ -1794,29 +1929,32 @@
 భూమీశుల పాలఁ జేరు భువిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>[('చీ', 'U'), ('మ', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('ట్ట', '|'), ('లు', '|'), ('పా', 'U'), ('ము', '|'), ('ల', '|'), ('కి', '|'), ('ర', '|'), ('వై', 'U'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('మ', '|'), ('రు', '|'), ('డు', '|'), ('ద', '|'), ('గన్', 'U'), ('హే', 'U'), ('మం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('భూ', 'U'), ('మీ', 'U'), ('శు', '|'), ('ల', '|'), ('పా', 'U'), ('ల', '|'), ('జే', 'U'), ('రు', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>చుట్టములు గాని వారలు
 చుట్టములము నీ కటంచు సొంపు దలిర్పన్‌
@@ -1824,29 +1962,32 @@
 గట్టిగ ద్రవ్యంబు గలుగఁ గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>[('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('టం', 'U'), ('చు', '|'), ('సొం', 'U'), ('పు', '|'), ('ద', '|'), ('లి', '|'), ('ర్పన్', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('తు', '|'), ('రు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('ద్ర', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>చేతులకుఁ దొడవు దానము
 భూతల నాథులకుఁ దొడవు బొంకమి ధరలో
@@ -1854,29 +1995,32 @@
 నాతికి మానంబు తొడవు నయముగ సుమతీ!</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>[('చే', 'U'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('కు', '|'), ('దొ', '|'), ('డ', '|'), ('వు', '|'), ('బొం', 'U'), ('క', '|'), ('మి', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('నీ', 'U'), ('తి', '|'), ('య', '|'), ('తొ', '|'), ('డ', '|'), ('వె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కి', '|'), ('నా', 'U'), ('తి', '|'), ('కి', '|'), ('మా', 'U'), ('నం', 'U'), ('బు', '|'), ('తొ', '|'), ('డ', '|'), ('వు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>తడవోర్వక యొడలోర్వక
 కడువేగం బడచిపడినఁ గార్యంబగునే
@@ -1884,29 +2028,32 @@
 జెడిపోయిన కార్యమెల్లఁ జేకుఱు సుమతీ!</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('డ', '|'), ('వో', 'U'), ('ర్వ', '|'), ('క', '|'), ('యొ', '|'), ('డ', '|'), ('లో', 'U'), ('ర్వ', '|'), ('క', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('గం', 'U'), ('బ', '|'), ('డ', '|'), ('చి', '|'), ('ప', '|'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ర్యం', 'U'), ('బ', '|'), ('గు', '|'), ('నే', 'U'), ('త', '|'), ('డ', '|'), ('వో', 'U'), ('ర్చి', '|'), ('న', '|'), ('నొ', '|'), ('డ', '|'), ('లో', 'U'), ('ర్చి', '|'), ('న', '|'), ('జె', '|'), ('డి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('కా', 'U'), ('ర్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('కు', '|'), ('ఱు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>తన కోపమె తన శత్రువు
 తన శాంతమె తనకు రక్ష దయ చుట్టంబౌఁ
@@ -1914,29 +2061,32 @@
 తన దుఃఖమె నరకమండ్రు తథ్యము సుమతీ!</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('శ', 'U'), ('త్రు', '|'), ('వు', '|'), ('త', '|'), ('న', '|'), ('శాం', 'U'), ('త', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ద', '|'), ('య', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బౌ', 'U'), ('ద', '|'), ('న', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మె', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మె', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మం', 'U'), ('డ్రు', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[('త', '|'), ('న', '|'), ('కో', 'U'), ('ప', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('శ', '|'), ('త్రు', '|'), ('వు', '|'), ('త', '|'), ('న', '|'), ('శాం', 'U'), ('త', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ద', '|'), ('య', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బౌ', 'U'), ('ద', '|'), ('న', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మె', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మె', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మం', 'U'), ('డ్రు', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>తన యూరి తపసితనమును
 దన పుత్త్రుని విద్య పెంపుఁ దన సతి రూపున్‌
@@ -1944,29 +2094,32 @@
 మనసున వర్ణింపరెట్టి మనుజులు సుమతీ!</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('న', '|'), ('యూ', 'U'), ('రి', '|'), ('త', '|'), ('ప', '|'), ('సి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('పు', 'U'), ('త్త్రు', '|'), ('ని', '|'), ('వి', 'U'), ('ద్య', '|'), ('పెం', 'U'), ('పు', '|'), ('ద', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('రూ', 'U'), ('పున్', 'U'), ('ద', '|'), ('న', '|'), ('పె', '|'), ('ర', '|'), ('టి', '|'), ('చె', 'U'), ('ట్టు', '|'), ('మం', 'U'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('న', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('రె', 'U'), ('ట్టి', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>తన కలిమి యింద్ర భోగము
 తన లేమియె సర్వలోక దారిద్ర్యంబు\న్‌
@@ -1974,29 +2127,32 @@
 తను వలచినదియె రంభ తథ్యము సుమతీ!</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('లే', 'U'), ('మి', '|'), ('యె', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('దా', 'U'), ('రి', '|'), ('ద్ర్యం', 'U'), ('బున్', 'U'), ('ద', '|'), ('న', '|'), ('చా', 'U'), ('వు', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('ళ', '|'), ('య', '|'), ('ము', '|'), ('త', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('యె', '|'), ('రం', 'U'), ('భ', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[('త', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('భో', 'U'), ('గ', '|'), ('ము', '|'), ('త', '|'), ('న', '|'), ('లే', 'U'), ('మి', '|'), ('యె', '|'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('దా', 'U'), ('రి', 'U'), ('ద్ర్యం', 'U'), ('బున్', 'U'), ('ద', '|'), ('న', '|'), ('చా', 'U'), ('వు', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('ళ', '|'), ('య', '|'), ('ము', '|'), ('త', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('ది', '|'), ('యె', '|'), ('రం', 'U'), ('భ', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>తన వారు లేని చోటను
 జనువించుక లేని చోట జగడము చోటన్‌
@@ -2004,29 +2160,32 @@
 మనుజునకును నిలువఁదగదు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('ను', '|'), ('జ', '|'), ('ను', '|'), ('విం', 'U'), ('చు', '|'), ('క', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('చో', 'U'), ('టన్', 'U'), ('అ', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('చో', 'U'), ('ట', '|'), ('ను', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>తమలము సేయని నోరును
 విమతులతోఁ జెలిమిసేసి వెతఁబడు తెలివిన్‌
@@ -2035,29 +2194,32 @@
 హిమధాముఁడు లేని రాత్రి హీనము సుమతీ!</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('వి', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('సే', 'U'), ('సి', '|'), ('వె', '|'), ('త', '|'), ('బ', '|'), ('డు', '|'), ('తె', '|'), ('లి', '|'), ('విన్', 'U'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చ', '|'), ('ను', '|'), ('మొ', '|'), ('న', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('మే', 'U'), ('ను', 'U'), ('న్గ', '|'), ('మ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('ని', '|'), ('కొ', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('ము', '|'), ('డు', '|'), ('లే', 'U'), ('ని', '|'), ('రా', 'U'), ('త్రి', '|'), ('హీ', 'U'), ('న', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>తలనుండు విషము ఫణికిని
 వెలయంగాఁ దోఁక నుండు వృశ్చికమునకున్‌
@@ -2065,29 +2227,32 @@
 ఖలునకు నిలువెల్ల విషము గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('ల', '|'), ('నుం', 'U'), ('డు', '|'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('ఫ', '|'), ('ణి', '|'), ('కి', '|'), ('ని', '|'), ('వె', '|'), ('ల', '|'), ('యం', 'U'), ('గా', 'U'), ('దో', 'U'), ('క', '|'), ('నుం', 'U'), ('డు', '|'), ('వృ', 'U'), ('శ్చి', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('త', '|'), ('ల', '|'), ('తో', 'U'), ('క', '|'), ('య', '|'), ('న', '|'), ('క', '|'), ('యుం', 'U'), ('డు', '|'), ('ను', '|'), ('ఖ', '|'), ('లు', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('లు', '|'), ('వె', 'U'), ('ల్ల', '|'), ('వి', '|'), ('ష', '|'), ('ము', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>తలపొడవు ధనముఁ బోసిన
 వెలయాలికి నిజములేదు వివరింపఁగాఁ
@@ -2095,29 +2260,32 @@
 వెలయాలిని నమ్మరాదు వినరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>[('త', '|'), ('ల', '|'), ('పొ', '|'), ('డ', '|'), ('వు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('కి', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('ద', '|'), ('డ', '|'), ('వి', '|'), ('బా', 'U'), ('స', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('న', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>తలమాసిన నొలుమాసిన
 వలువలు మాసినను బ్రాణవల్లభునైనన్‌
@@ -2125,29 +2293,32 @@
 తిలకింపఁగ భూమిలోనఁ దిరముగ సుమతీ!</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('నొ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('నై', 'U'), ('నన్', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('లై', 'U'), ('న', '|'), ('రో', 'U'), ('తు', '|'), ('రు', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('న', '|'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[('త', '|'), ('ల', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('నొ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('లు', '|'), ('మా', 'U'), ('సి', '|'), ('న', '|'), ('ను', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('నై', 'U'), ('నన్', 'U'), ('గు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('లై', 'U'), ('న', '|'), ('రో', 'U'), ('తు', '|'), ('రు', '|'), ('తి', '|'), ('ల', '|'), ('కిం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('న', '|'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>తాననుభవింప నర్థము
 మానవపతిఁ జేరుఁ గొంత మఱి భూగతమౌఁ
@@ -2155,29 +2326,32 @@
 తేనియ యొరుఁజేరునట్లు తిరముగ సుమతీ!</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>[('తా', 'U'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('ప', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('ప', '|'), ('తి', '|'), ('జే', 'U'), ('రు', '|'), ('గొం', 'U'), ('త', '|'), ('మ', '|'), ('ఱి', '|'), ('భూ', 'U'), ('గ', '|'), ('త', '|'), ('మౌ', 'U'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('నీ', 'U'), ('గ', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('తే', 'U'), ('ని', '|'), ('య', '|'), ('యొ', '|'), ('రు', '|'), ('జే', 'U'), ('రు', '|'), ('న', 'U'), ('ట్లు', '|'), ('తి', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>దగ్గఱ కొండెము చెప్పెడు
 ప్రెగ్గడ పలుకులకు రాజు ప్రియుఁడై మఱి తా
@@ -2185,29 +2359,32 @@
 బొగ్గులకై కల్పతరువుఁ బొడుచుట సుమతీ!</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('ద', 'U'), ('గ్గ', '|'), ('ఱ', '|'), ('కొం', 'U'), ('డె', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', 'U'), ('ప్రె', 'U'), ('గ్గ', '|'), ('డ', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('జు', 'U'), ('ప్రి', '|'), ('యు', '|'), ('డై', 'U'), ('మ', '|'), ('ఱి', '|'), ('తా', 'U'), ('నె', 'U'), ('గ్గు', 'U'), ('బ్ర', '|'), ('జ', '|'), ('కా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('ల', '|'), ('కై', 'U'), ('క', 'U'), ('ల్ప', '|'), ('త', '|'), ('రు', '|'), ('వు', '|'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[('ద', 'U'), ('గ్గ', '|'), ('ఱ', '|'), ('కొం', 'U'), ('డె', '|'), ('ము', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డు', '|'), ('ప్రె', 'U'), ('గ్గ', '|'), ('డ', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('రా', 'U'), ('జు', '|'), ('ప్రి', '|'), ('యు', '|'), ('డై', 'U'), ('మ', '|'), ('ఱి', '|'), ('తా', 'U'), ('నె', 'U'), ('గ్గు', '|'), ('బ్ర', '|'), ('జ', '|'), ('కా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('ల', '|'), ('కై', 'U'), ('క', 'U'), ('ల్ప', '|'), ('త', '|'), ('రు', '|'), ('వు', '|'), ('బొ', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>ధనపతి సఖుఁడై యుండియు
 నెనయంగా శివుఁడు భిక్ష మెత్తఁగవలసెన్‌
@@ -2215,29 +2392,32 @@
 దనభాగ్యమె తనకుఁగాక తథ్యము సుమతీ!</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>[('ధ', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ఖు', '|'), ('డై', 'U'), ('యుం', 'U'), ('డి', '|'), ('యు', '|'), ('నె', '|'), ('న', '|'), ('యం', 'U'), ('గా', 'U'), ('శి', '|'), ('వు', '|'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మె', 'U'), ('త్త', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('సెన్', 'U'), ('ద', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('కెం', 'U'), ('త', '|'), ('క', '|'), ('ల', '|'), ('గి', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('భా', 'U'), ('గ్య', '|'), ('మె', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>ధీరులకుఁ జేయు మేలది
 సారంబగు నారికేళ సలిలము భంగిన్‌
@@ -2245,29 +2425,32 @@
 భూరి సుఖావహము నగును భువిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>[('ధీ', 'U'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('జే', 'U'), ('యు', '|'), ('మే', 'U'), ('ల', '|'), ('ది', '|'), ('సా', 'U'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళ', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('ము', '|'), ('భం', 'U'), ('గిన్', 'U'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('మ', '|'), ('ఱి', '|'), ('మీ', 'U'), ('ద', '|'), ('ట', '|'), ('భూ', 'U'), ('రి', '|'), ('సు', '|'), ('ఖా', 'U'), ('వ', '|'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('గు', '|'), ('ను', '|'), ('భు', '|'), ('వి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>నడువకుమీ తెరువొక్కటఁ
 గుడువకుమీ శత్రునింటఁ గూరిమి తోడన్‌
@@ -2275,29 +2458,32 @@
 నుడువకుమీ యొరుల మనసు నొవ్వఁగ సుమతీ!</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('తె', '|'), ('రు', '|'), ('వొ', 'U'), ('క్క', '|'), ('ట', '|'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('శ', 'U'), ('త్రు', '|'), ('నిం', 'U'), ('ట', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డన్', 'U'), ('ము', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('వ్వ', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[('న', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('తె', '|'), ('రు', '|'), ('వొ', 'U'), ('క్క', '|'), ('ట', '|'), ('గు', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('శ', '|'), ('త్రు', '|'), ('నిం', 'U'), ('ట', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('డన్', 'U'), ('ము', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('మీ', 'U'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('వ్వ', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>నమ్మకు సుంకరి జూదరి
 నమ్మకు మగసాలివాని నటు వెలయాలిన్‌
@@ -2305,29 +2491,32 @@
 నమ్మకుమీ వామహస్తు నవనిని సుమతీ!</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>[('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('సుం', 'U'), ('క', '|'), ('రి', '|'), ('జూ', 'U'), ('ద', '|'), ('రి', '|'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మ', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('వా', 'U'), ('ని', '|'), ('న', '|'), ('టు', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లిన్', 'U'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('డి', '|'), ('వా', 'U'), ('ని', '|'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('కు', '|'), ('మీ', 'U'), ('వా', 'U'), ('మ', '|'), ('హ', 'U'), ('స్తు', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>నయమునఁ బాలుం ద్రావరు
 భయమున విషమ్మునైన భక్షింతురుగా
@@ -2335,29 +2524,32 @@
 భయమే చూపంగ వలయు బాగుగ సుమతీ!</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>[('న', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('లుం', 'U'), ('ద్రా', 'U'), ('వ', '|'), ('రు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('వి', '|'), ('ష', 'U'), ('మ్ము', '|'), ('నై', 'U'), ('న', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('న', '|'), ('య', '|'), ('మెం', 'U'), ('త', '|'), ('దో', 'U'), ('స', '|'), ('కా', 'U'), ('రి', '|'), ('యొ', '|'), ('భ', '|'), ('య', '|'), ('మే', 'U'), ('చూ', 'U'), ('పం', 'U'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('బా', 'U'), ('గు', '|'), ('గ', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>నరపతులు మేరఁ దప్పినఁ
 దిర మొప్పగ విధవ యింటఁ దీర్పరియైనన్‌
@@ -2365,29 +2557,32 @@
 మరణాంతకమౌను గాని మానదు సుమతీ!</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>[('న', '|'), ('ర', '|'), ('ప', '|'), ('తు', '|'), ('లు', '|'), ('మే', 'U'), ('ర', '|'), ('ద', 'U'), ('ప్పి', '|'), ('న', '|'), ('ది', '|'), ('ర', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వి', '|'), ('ధ', '|'), ('వ', '|'), ('యిం', 'U'), ('ట', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('రి', '|'), ('యై', 'U'), ('నన్', 'U'), ('గ', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('వై', 'U'), ('ది', '|'), ('కు', '|'), ('డ', '|'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('మ', '|'), ('ర', '|'), ('ణాం', 'U'), ('త', '|'), ('క', '|'), ('మౌ', 'U'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మా', 'U'), ('న', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>నవరస భావాలంకృత
 కవితా గోష్ఠియును మధుర గానంబును దా
@@ -2395,29 +2590,32 @@
 జెవిటికి సంకూదినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>[('న', '|'), ('వ', '|'), ('ర', '|'), ('స', '|'), ('భా', 'U'), ('వా', 'U'), ('లం', 'U'), ('కృ', '|'), ('త', '|'), ('క', '|'), ('వి', '|'), ('తా', 'U'), ('గో', 'U'), ('ష్ఠి', '|'), ('యు', '|'), ('ను', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('గా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('కెం', 'U'), ('త', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('జె', '|'), ('వి', '|'), ('టి', '|'), ('కి', '|'), ('సం', 'U'), ('కూ', 'U'), ('ది', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>నవ్వకుమీ సభ లోపల
 నవ్వకుమీ తల్లిదండ్రి నాథుల తోడన్‌
@@ -2425,29 +2623,32 @@
 నవ్వకుమీ విప్రవరుల నయమిది సుమతీ!</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('స', '|'), ('భ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('తో', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('వి', 'U'), ('ప్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('మి', '|'), ('ది', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('స', '|'), ('భ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రి', '|'), ('నా', 'U'), ('థు', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('తో', 'U'), ('న', 'U'), ('వ్వ', '|'), ('కు', '|'), ('మీ', 'U'), ('వి', '|'), ('ప్ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('మి', '|'), ('ది', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>నీరే ప్రాణాధారము
 నోరే రసభరితమైన నుడువులకెల్లన్‌
@@ -2455,29 +2656,32 @@
 చీరయె శృంగారమండ్రు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>[('నీ', 'U'), ('రే', 'U'), ('ప్రా', 'U'), ('ణా', 'U'), ('ధా', 'U'), ('ర', '|'), ('ము', '|'), ('నో', 'U'), ('రే', 'U'), ('ర', '|'), ('స', '|'), ('భ', '|'), ('రి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('ను', '|'), ('డు', '|'), ('వు', '|'), ('ల', '|'), ('కె', '|'), ('ల్లన్', 'U'), ('నా', 'U'), ('రి', '|'), ('యె', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('చీ', 'U'), ('ర', '|'), ('యె', '|'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('మం', 'U'), ('డ్రు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>పగ వలదెవ్వరి తోడను
 వగవంగా వలదు లేమి వచ్చిన పిదపన్‌
@@ -2485,29 +2689,32 @@
 మగువకు మనసీయవలదు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('దె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('వ', '|'), ('గ', '|'), ('వం', 'U'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('లే', 'U'), ('మి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('దె', '|'), ('గ', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('కు', '|'), ('మ', '|'), ('న', '|'), ('సీ', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>పతికడకుఁ దన్నుగూర్చిన
 సతికడకును వేల్పుకడకు సద్గురుకడకున్‌
@@ -2515,29 +2722,32 @@
 మతిమంతులు చనరు నీతి మార్గము సుమతీ!</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ద', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ను', '|'), ('వే', 'U'), ('ల్పు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('క', '|'), ('డ', '|'), ('కున్', 'U'), ('సు', '|'), ('తు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('రి', 'U'), ('త్త', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తు', '|'), ('లు', '|'), ('చ', '|'), ('న', '|'), ('రు', '|'), ('నీ', 'U'), ('తి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>పనిచేయు నెడల దాసియు
 ననుభవమున రంభ మంత్రి యాలోచనలన్‌
@@ -2545,29 +2755,32 @@
 ననఁ దన కులకాంత యుండ నగురా సుమతీ!</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('ని', '|'), ('చే', 'U'), ('యు', '|'), ('నె', '|'), ('డ', '|'), ('ల', '|'), ('దా', 'U'), ('సి', '|'), ('యు', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('రం', 'U'), ('భ', '|'), ('మం', 'U'), ('త్రి', '|'), ('యా', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('లన్', 'U'), ('ద', '|'), ('న', '|'), ('భు', 'U'), ('క్తి', '|'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('ద', 'U'), ('ల్లి', '|'), ('యు', '|'), ('న', '|'), ('న', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('యుం', 'U'), ('డ', '|'), ('న', '|'), ('గు', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>పరనారీసోదరుఁడై
 పరధనముల కాసపడక పరులకు హితుఁడై
@@ -2575,29 +2788,32 @@
 పరులలిగిన నలుగనతఁడు పరముఁడు సుమతీ!</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('సో', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('హి', '|'), ('తు', '|'), ('డై', 'U'), ('ప', '|'), ('రు', '|'), ('లు', '|'), ('ద', '|'), ('ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నె', '|'), ('గ', '|'), ('డి', '|'), ('యు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('న', '|'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('ము', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>పరసతి కూటమిఁ గోరకు
 పరధనముల కాసపడకు పరునెంచకుమీ
@@ -2605,29 +2821,32 @@
 సిరి చెడిఁ జుట్టంబుకడకుఁ జేరకు సుమతీ!</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('గో', 'U'), ('ర', '|'), ('కు', '|'), ('ప', '|'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('కా', 'U'), ('స', '|'), ('ప', '|'), ('డ', '|'), ('కు', '|'), ('ప', '|'), ('రు', '|'), ('నెం', 'U'), ('చ', '|'), ('కు', '|'), ('మీ', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('సే', 'U'), ('య', '|'), ('కు', '|'), ('సి', '|'), ('రి', '|'), ('చె', '|'), ('డి', '|'), ('జు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>పరసతుల గోష్ఠినుండిన
 పురుషుడు గాంగేయుఁడైన భువి నిందబడున్‌
@@ -2635,29 +2854,32 @@
 బరుసంగతి నున్న నిందపాలగు సుమతీ!73</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('ర', '|'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('నుం', 'U'), ('డి', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('గాం', 'U'), ('గే', 'U'), ('యు', '|'), ('డై', 'U'), ('న', '|'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('ద', '|'), ('బ', '|'), ('డున్', 'U'), ('బ', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('సు', '|'), ('శీ', 'U'), ('ల', '|'), ('యై', 'U'), ('న', '|'), ('ను', '|'), ('బ', '|'), ('రు', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ను', 'U'), ('న్న', '|'), ('నిం', 'U'), ('ద', '|'), ('పా', 'U'), ('ల', '|'), ('గు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>పరు నాత్మఁ దలఁచు సతి విడు
 మఱుమాటలు పలుకు సుతుల మన్నింపకుమీ
@@ -2665,29 +2887,32 @@
 తఱచుగ సతిఁ గవయఁబోకు తగదుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('స', '|'), ('తి', '|'), ('వి', '|'), ('డు', '|'), ('మ', '|'), ('ఱు', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('వె', '|'), ('ఱ', '|'), ('పె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('భ', '|'), ('టు', '|'), ('నే', 'U'), ('ల', '|'), ('కు', '|'), ('త', '|'), ('ఱ', '|'), ('చు', '|'), ('గ', '|'), ('స', '|'), ('తి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>పరుల కనిష్టము సెప్పకు
 పొరుగిండ్లకుఁ బనులులేక పోవకుమెపుడున్‌
@@ -2695,29 +2920,32 @@
 మెఱిఁగియు బిరుసైన హయమునెక్కకు సుమతీ!</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('క', '|'), ('ని', 'U'), ('ష్ట', '|'), ('ము', '|'), ('సె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('బ', '|'), ('ను', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('పో', 'U'), ('వ', '|'), ('కు', '|'), ('మె', '|'), ('పు', '|'), ('డున్', 'U'), ('బ', '|'), ('రు', '|'), ('గ', '|'), ('వి', '|'), ('సి', '|'), ('న', '|'), ('స', '|'), ('తి', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('కు', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('యు', '|'), ('బి', '|'), ('రు', '|'), ('సై', 'U'), ('న', '|'), ('హ', '|'), ('య', '|'), ('ము', '|'), ('నె', 'U'), ('క్క', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>పర్వముల సతులఁ గవయకు
 ముర్వీశ్వరు కరుణ నమ్మి యుబ్బకు మదిలో
@@ -2725,29 +2953,32 @@
 నిర్వహణము లేనిచోట నిలువకు సుమతీ!</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>[('ప', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ల', '|'), ('స', '|'), ('తు', '|'), ('ల', '|'), ('గ', '|'), ('వ', '|'), ('య', '|'), ('కు', '|'), ('ము', 'U'), ('ర్వీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('బ్బ', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('ప', '|'), ('నా', 'U'), ('లి', '|'), ('బెం', 'U'), ('చ', '|'), ('కు', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హ', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('చో', 'U'), ('ట', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>పలు దోమి సేయు విడియము
 తల గడిగిన నాఁటినిద్ర తరుణుల తోడన్‌
@@ -2755,29 +2986,32 @@
 వెల యింతని చెప్పరాదు వినురా సుమతీ!</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>[('ప', '|'), ('లు', '|'), ('దో', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('వి', '|'), ('డి', '|'), ('య', '|'), ('ము', '|'), ('త', '|'), ('ల', '|'), ('గ', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('ని', '|'), ('ద్ర', '|'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('ల', '|'), ('తో', 'U'), ('డన్', 'U'), ('బొ', '|'), ('ల', '|'), ('య', '|'), ('లు', '|'), ('క', '|'), ('నా', 'U'), ('టి', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('వె', '|'), ('ల', '|'), ('యిం', 'U'), ('త', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>పాటెఱుగని పతికొలువును
 గూటంబున కెఱుకపడని కోమలి రతియున్‌
@@ -2785,29 +3019,32 @@
 నేటికి నెదురీఁదినట్టు లెన్నర సుమతీ!</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>[('పా', 'U'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('ప', '|'), ('తి', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('ను', '|'), ('గూ', 'U'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('ర', '|'), ('తి', '|'), ('యున్', 'U'), ('బే', 'U'), ('టె', 'U'), ('త్త', '|'), ('జే', 'U'), ('యు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('నె', '|'), ('దు', '|'), ('రీ', 'U'), ('ది', '|'), ('న', 'U'), ('ట్టు', '|'), ('లె', 'U'), ('న్న', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>పాలను గలసిన జలమును
 బాల విధంబుననె యుండుఁ బరికింపంగాఁ
@@ -2815,29 +3052,32 @@
 బాలసుఁడగువాని పొందు వలదుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('బా', 'U'), ('ల', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('నె', '|'), ('యుం', 'U'), ('డు', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('బా', 'U'), ('ల', '|'), ('చ', '|'), ('వి', '|'), ('జె', '|'), ('ఱ', '|'), ('చు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('బా', 'U'), ('ల', '|'), ('సు', '|'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('పొం', 'U'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>పాలసునకైన యాపద
 జాలింబడి తీర్పఁదగదు సర్వజ్ఞునకున్‌
@@ -2845,29 +3085,32 @@
 మేలెఱుఁగునె మీటుఁగాక మేదిని సుమతీ!</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>[('పా', 'U'), ('ల', '|'), ('సు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('యా', 'U'), ('ప', '|'), ('ద', '|'), ('జా', 'U'), ('లిం', 'U'), ('బ', '|'), ('డి', '|'), ('తీ', 'U'), ('ర్ప', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞు', '|'), ('న', '|'), ('కున్', 'U'), ('దే', 'U'), ('ల', 'U'), ('గ్ని', '|'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('న', '|'), ('మే', 'U'), ('లె', '|'), ('ఱు', '|'), ('గు', '|'), ('నె', '|'), ('మీ', 'U'), ('టు', '|'), ('గా', 'U'), ('క', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>పిలువని పనులకుఁ బోవుట
 కలయని సతిరతియు రాజుగానని కొలువున్‌
@@ -2875,29 +3118,32 @@
 వలవని చెలిమియును జేయవలదుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>[('పి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('బో', 'U'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('ల', '|'), ('య', '|'), ('ని', '|'), ('స', '|'), ('తి', '|'), ('ర', '|'), ('తి', '|'), ('యు', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('కొ', '|'), ('లు', '|'), ('వున్', 'U'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('పే', 'U'), ('రం', 'U'), ('టం', 'U'), ('బు', '|'), ('ను', '|'), ('వ', '|'), ('ల', '|'), ('వ', '|'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A83" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>పురికిని బ్రాణము కోమటి
 వరికిని బ్రాణంబు నీరు వసుమతి లోన\న్‌
@@ -2905,29 +3151,32 @@
 సిరికిని బ్రాణంబు మగువ సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('వ', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('రు', '|'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('నన్', 'U'), ('గ', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('సి', '|'), ('రి', '|'), ('కి', '|'), ('ని', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[('పు', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('కో', 'U'), ('మ', '|'), ('టి', '|'), ('వ', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('నీ', 'U'), ('రు', '|'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('లో', 'U'), ('నన్', 'U'), ('గ', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('సి', '|'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A84" s="1" t="n">
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>పులిపాలు తెచ్చి యిచ్చిన
 నలవడఁగ గుండెగోసి యఱచే నిడినన్‌
@@ -2935,29 +3184,32 @@
 వెలయాలికిఁ గూర్మి లేదు వినురా సుమతీ!</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>[('పు', '|'), ('లి', '|'), ('పా', 'U'), ('లు', '|'), ('తె', 'U'), ('చ్చి', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('న', '|'), ('ల', '|'), ('వ', '|'), ('డ', '|'), ('గ', '|'), ('గుం', 'U'), ('డె', '|'), ('గో', 'U'), ('సి', '|'), ('య', '|'), ('ఱ', '|'), ('చే', 'U'), ('ని', '|'), ('డి', '|'), ('నన్', 'U'), ('ద', '|'), ('ల', '|'), ('పొ', '|'), ('డు', '|'), ('గు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('బో', 'U'), ('సి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('కి', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('లే', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A85" s="1" t="n">
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>పెట్టిన దినములలోపల
 నట్టడవులకైన వచ్చు నానార్థములున్‌
@@ -2965,29 +3217,32 @@
 గట్టెక్కిన నేమి లేదు గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>[('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('ట్ట', '|'), ('డ', '|'), ('వు', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('నా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లున్', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('ని', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('పు', '|'), ('గ', 'U'), ('ట్టె', 'U'), ('క్కి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>పొరుగునఁ బగవాఁడుండిన
 నిరవొందఁగ వ్రాఁతగాఁడె యేలికయైన\న్‌
@@ -2995,29 +3250,32 @@
 గరణాలకు బ్రతుకులేదు గదరా సుమతీ!</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('పొ', '|'), ('రు', '|'), ('గు', '|'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('డుం', 'U'), ('డి', '|'), ('న', '|'), ('ని', '|'), ('ర', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('గా', 'U'), ('డె', '|'), ('యే', 'U'), ('లి', '|'), ('క', '|'), ('యై', 'U'), ('నన్', 'U'), ('ధ', '|'), ('ర', '|'), ('గా', 'U'), ('పు', '|'), ('కొం', 'U'), ('డె', '|'), ('మా', 'U'), ('డి', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('ణా', 'U'), ('ల', '|'), ('కు', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[('పొ', '|'), ('రు', '|'), ('గు', '|'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('డుం', 'U'), ('డి', '|'), ('న', '|'), ('ని', '|'), ('ర', '|'), ('వొం', 'U'), ('ద', '|'), ('గ', '|'), ('వ్రా', 'U'), ('త', '|'), ('గా', 'U'), ('డె', '|'), ('యే', 'U'), ('లి', '|'), ('క', '|'), ('యై', 'U'), ('నన్', 'U'), ('ధ', '|'), ('ర', '|'), ('గా', 'U'), ('పు', '|'), ('కొం', 'U'), ('డె', '|'), ('మా', 'U'), ('డి', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('ణా', 'U'), ('ల', '|'), ('కు', '|'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('లే', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>బంగారు కుదువఁ బెట్టకు
 సంగరమునఁ బాఱిపోకు సరసుఁడవైనన్‌
@@ -3025,29 +3283,32 @@
 వెంగలితోఁ జెలిమి వలదు వినురా సుమతీ!</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>[('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('ఱి', '|'), ('పో', 'U'), ('కు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డ', '|'), ('వై', 'U'), ('నన్', 'U'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('వె', 'U'), ('చ్చ', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>బలవంతుఁడ నాకేమని
 పలువురతో నిగ్రహించి పలుకుట మేలా?
@@ -3055,29 +3316,32 @@
 చలి చీమల చేతఁ జిక్కి చావదె సుమతీ!</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నా', 'U'), ('కే', 'U'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('ర', '|'), ('తో', 'U'), ('ని', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ట', '|'), ('మే', 'U'), ('లా', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('చ', '|'), ('లి', '|'), ('చీ', 'U'), ('మ', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('జి', 'U'), ('క్కి', '|'), ('చా', 'U'), ('వ', '|'), ('దె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నా', 'U'), ('కే', 'U'), ('మ', '|'), ('ని', '|'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('ర', '|'), ('తో', 'U'), ('ని', '|'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('ట', '|'), ('మే', 'U'), ('లా', 'U'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('చ', '|'), ('లి', '|'), ('చీ', 'U'), ('మ', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('జి', 'U'), ('క్కి', '|'), ('చా', 'U'), ('వ', '|'), ('దె', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>మండలపతి సముఖంబున
 మెండైన ప్రధానిలేక మెలఁగుట యెల్లన్‌
@@ -3085,29 +3349,32 @@
 తొండము లేకుండినట్టు దోఁచుర సుమతీ!</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('మెం', 'U'), ('డై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('ధా', 'U'), ('ని', '|'), ('లే', 'U'), ('క', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('గొం', 'U'), ('డం', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('పు', '|'), ('టే', 'U'), ('ను', '|'), ('గు', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ప', '|'), ('తి', '|'), ('స', '|'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('మెం', 'U'), ('డై', 'U'), ('న', '|'), ('ప్ర', '|'), ('ధా', 'U'), ('ని', '|'), ('లే', 'U'), ('క', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('గొం', 'U'), ('డం', 'U'), ('త', '|'), ('మ', '|'), ('ద', '|'), ('పు', '|'), ('టే', 'U'), ('ను', '|'), ('గు', '|'), ('తొం', 'U'), ('డ', '|'), ('ము', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', 'U'), ('ట్టు', '|'), ('దో', 'U'), ('చు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>మంత్రిగలవాని రాజ్యము
 తంత్రము చెడకుండ నిలచుఁ దఱచుగ ధరలో
@@ -3115,29 +3382,32 @@
 జంత్రపుఁ గీలూడినట్లు జరుగదు సుమతీ!</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>[('మం', 'U'), ('త్రి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('తం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చె', '|'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('ని', '|'), ('ల', '|'), ('చు', '|'), ('ద', '|'), ('ఱ', '|'), ('చు', '|'), ('గ', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('మం', 'U'), ('త్రి', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('జం', 'U'), ('త్ర', '|'), ('పు', '|'), ('గీ', 'U'), ('లూ', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('జ', '|'), ('రు', '|'), ('గ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>మాటకుఁ బ్రాణము సత్యము
 కోటకుఁ బ్రాణంబు సుభటకోటి ధరిత్రిన్‌
@@ -3145,29 +3415,32 @@
 చీటికిఁ బ్రాణంబు వ్రాలు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('ట', '|'), ('కు', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('కో', 'U'), ('ట', '|'), ('కు', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('సు', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిన్', 'U'), ('బో', 'U'), ('టి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('చీ', 'U'), ('టి', '|'), ('కి', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', 'U'), ('వ్రా', 'U'), ('లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[('మా', 'U'), ('ట', '|'), ('కు', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('కో', 'U'), ('ట', '|'), ('కు', '|'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('సు', '|'), ('భ', '|'), ('ట', '|'), ('కో', 'U'), ('టి', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిన్', 'U'), ('బో', 'U'), ('టి', '|'), ('కి', '|'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('చీ', 'U'), ('టి', '|'), ('కి', '|'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('వ్రా', 'U'), ('లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>మానఘనుఁ డాత్మధృతిఁ జెడి
 హీనుండగువాని నాశ్రయించుట యెల్లన్‌
@@ -3175,29 +3448,32 @@
 నేనుఁగు మెయి దాఁచినట్టు లెఱుగుము సుమతీ!</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>[('మా', 'U'), ('న', '|'), ('ఘ', '|'), ('ను', '|'), ('డా', 'U'), ('త్మ', '|'), ('ధృ', '|'), ('తి', '|'), ('జె', '|'), ('డి', '|'), ('హీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('నా', 'U'), ('శ్ర', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('యె', '|'), ('ల్లన్', 'U'), ('మా', 'U'), ('నె', '|'), ('డు', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నే', 'U'), ('ను', '|'), ('గు', '|'), ('మె', '|'), ('యి', '|'), ('దా', 'U'), ('చి', '|'), ('న', 'U'), ('ట్టు', '|'), ('లె', '|'), ('ఱు', '|'), ('గు', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>రాపొమ్మని పిలువని యా
 భూపాలునిఁ గొల్వ భుక్తి ముక్తులు గలవే?
@@ -3205,29 +3481,32 @@
 జేపుణికిళ్ళాడినట్లు సిద్ధము సుమతీ!</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>[('రా', 'U'), ('పొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', '|'), ('లు', '|'), ('వ', '|'), ('ని', '|'), ('యా', 'U'), ('భూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ని', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వే', 'U'), ('దీ', 'U'), ('పం', 'U'), ('బు', '|'), ('లే', 'U'), ('ని', '|'), ('యిం', 'U'), ('ట', '|'), ('ను', '|'), ('జే', 'U'), ('పు', '|'), ('ణి', '|'), ('కి', 'U'), ('ళ్ళా', 'U'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>రూపించి పలికి బొంకకు
 ప్రాపగు చుట్టంబు నెగ్గు పలుకకు మదిలోఁ
@@ -3235,29 +3514,32 @@
 పాపపు దేశంబు సొరకు పదిలము సుమతీ!</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('రూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('బొం', 'U'), ('క', '|'), ('కు', 'U'), ('ప్రా', 'U'), ('ప', '|'), ('గు', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('నె', 'U'), ('గ్గు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గో', 'U'), ('పిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('కు', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('సొ', '|'), ('ర', '|'), ('కు', '|'), ('ప', '|'), ('ది', '|'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[('రూ', 'U'), ('పిం', 'U'), ('చి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('బొం', 'U'), ('క', '|'), ('కు', '|'), ('ప్రా', 'U'), ('ప', '|'), ('గు', '|'), ('చు', 'U'), ('ట్టం', 'U'), ('బు', '|'), ('నె', 'U'), ('గ్గు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('కు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గో', 'U'), ('పిం', 'U'), ('చు', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('కు', '|'), ('పా', 'U'), ('ప', '|'), ('పు', '|'), ('దే', 'U'), ('శం', 'U'), ('బు', '|'), ('సొ', '|'), ('ర', '|'), ('కు', '|'), ('ప', '|'), ('ది', '|'), ('ల', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>లావు గలవాని కంటెను
 భావింపఁగ నీతిపరుఁడు బలవంతుఁడౌ
@@ -3265,29 +3547,32 @@
 మావటివాఁడెక్కినట్లు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>[('లా', 'U'), ('వు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('కం', 'U'), ('టె', '|'), ('ను', '|'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డౌ', 'U'), ('గ్రా', 'U'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('గ', '|'), ('జం', 'U'), ('బు', '|'), ('ను', '|'), ('మా', 'U'), ('వ', '|'), ('టి', '|'), ('వా', 'U'), ('డె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>వఱదైన చేను దున్నకు
 కఱవైనను బంధుజనుల కడ కేఁగకుమీ
@@ -3295,29 +3580,32 @@
 పిఱికికి దళవాయితనముఁ బెట్టకు సుమతీ!</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ఱ', '|'), ('దై', 'U'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('దు', 'U'), ('న్న', '|'), ('కు', '|'), ('క', '|'), ('ఱ', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కే', 'U'), ('గ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('మ', '|'), ('ర్మ', '|'), ('ము', '|'), ('సె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('పి', '|'), ('ఱి', '|'), ('కి', '|'), ('కి', '|'), ('ద', '|'), ('ళ', '|'), ('వా', 'U'), ('యి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[('వ', '|'), ('ఱ', '|'), ('దై', 'U'), ('న', '|'), ('చే', 'U'), ('ను', '|'), ('దు', 'U'), ('న్న', '|'), ('కు', '|'), ('క', '|'), ('ఱ', '|'), ('వై', 'U'), ('న', '|'), ('ను', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కే', 'U'), ('గ', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('మ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('సె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('పి', '|'), ('ఱి', '|'), ('కి', '|'), ('కి', '|'), ('ద', '|'), ('ళ', '|'), ('వా', 'U'), ('యి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('బె', 'U'), ('ట్ట', '|'), ('కు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>వరిపంట లేని యూరును
 దొరయుండని యూరు తోడు దొరకని తెరువున్‌
@@ -3325,29 +3613,32 @@
 నరయంగా రుద్రభూమి యనఁదగు సుమతీ!</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>[('వ', '|'), ('రి', '|'), ('పం', 'U'), ('ట', '|'), ('లే', 'U'), ('ని', '|'), ('యూ', 'U'), ('రు', '|'), ('ను', '|'), ('దొ', '|'), ('ర', '|'), ('యుం', 'U'), ('డ', '|'), ('ని', '|'), ('యూ', 'U'), ('రు', '|'), ('తో', 'U'), ('డు', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('ని', '|'), ('తె', '|'), ('రు', '|'), ('వున్', 'U'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('బ', '|'), ('తి', '|'), ('లే', 'U'), ('ని', '|'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('రు', '|'), ('ద్ర', '|'), ('భూ', 'U'), ('మి', '|'), ('య', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>వినఁదగు నెవ్వరు సెప్పిన
 వినినంతనె వేగపడక వివరింపఁదగున్‌
@@ -3355,29 +3646,32 @@
 మనుజుఁడె పో నీతిపరుఁడు మహిలో సుమతీ!</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>[('వి', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సె', 'U'), ('ప్పి', '|'), ('న', '|'), ('వి', '|'), ('ని', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('వే', 'U'), ('గ', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('వి', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('ద', '|'), ('గున్', 'U'), ('గ', '|'), ('ని', '|'), ('క', 'U'), ('ల్ల', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డె', '|'), ('పో', 'U'), ('నీ', 'U'), ('తి', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('మ', '|'), ('హి', '|'), ('లో', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>వీడెము సేయని నోరును
 జేడెల యధరామృతంబుఁ జెందని నోరున్‌
@@ -3385,29 +3679,32 @@
 బూడిద కిరవైన పాడు బొందర సుమతీ.</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>[('వీ', 'U'), ('డె', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('జే', 'U'), ('డె', '|'), ('ల', '|'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('తం', 'U'), ('బు', '|'), ('జెం', 'U'), ('ద', '|'), ('ని', '|'), ('నో', 'U'), ('రున్', 'U'), ('బా', 'U'), ('డం', 'U'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ను', '|'), ('బూ', 'U'), ('డి', '|'), ('ద', '|'), ('కి', '|'), ('ర', '|'), ('వై', 'U'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('బొం', 'U'), ('ద', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>వెలయాలివలనఁ గూరిమి
 గలుగదు మఱిఁ గలిగెనేని కడతేరదుగా
@@ -3415,29 +3712,32 @@
 బులు మొలవదు మొలిచెనేని బొదలదు సుమతీ!</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లి', '|'), ('వ', '|'), ('ల', '|'), ('న', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('దు', '|'), ('మ', '|'), ('ఱి', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('తే', 'U'), ('ర', '|'), ('దు', '|'), ('గా', 'U'), ('ప', '|'), ('లు', '|'), ('వు', '|'), ('రు', '|'), ('న', '|'), ('డి', '|'), ('చె', '|'), ('డు', '|'), ('తె', '|'), ('రు', '|'), ('వు', '|'), ('న', '|'), ('బు', '|'), ('లు', '|'), ('మొ', '|'), ('ల', '|'), ('వ', '|'), ('దు', '|'), ('మొ', '|'), ('లి', '|'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('బొ', '|'), ('ద', '|'), ('ల', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>శుభముల నొందని చదువును
 నభినయమును రాగరసము నందని పాటల్‌
@@ -3445,29 +3745,32 @@
 సభమెచ్చని మాటలెల్లఁ జప్పన సుమతీ!</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>[('శు', '|'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('నొం', 'U'), ('ద', '|'), ('ని', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('ను', '|'), ('న', '|'), ('భి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ని', '|'), ('పా', 'U'), ('టల్', 'U'), ('అ', '|'), ('భి', '|'), ('లా', 'U'), ('ష', '|'), ('లే', 'U'), ('ని', '|'), ('కూ', 'U'), ('ట', '|'), ('మి', '|'), ('స', '|'), ('భ', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', 'U'), ('ప్ప', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>సరసము విరసము కొఱకే
 పరిపూర్ణసుఖంబు లధిక బాధల కొఱకే
@@ -3475,29 +3778,32 @@
 ధరతగ్గుట హెచ్చుకొఱకె తథ్యము సుమతీ.</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('వి', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('ప', '|'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('సు', '|'), ('ఖం', 'U'), ('బు', '|'), ('ల', '|'), ('ధి', '|'), ('క', '|'), ('బా', 'U'), ('ధ', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('పె', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('వి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('కే', 'U'), ('ధ', '|'), ('ర', '|'), ('త', 'U'), ('గ్గు', '|'), ('ట', '|'), ('హె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('త', 'U'), ('థ్య', '|'), ('ము', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>మేలెంచని మాలిన్యుని
 మాలను నగసాలివాని మంగలి హితుగా
@@ -3505,29 +3811,32 @@
 నేలఁ గలసిపోవుఁగాని నెగడదు సుమతీ.</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>[('మే', 'U'), ('లెం', 'U'), ('చ', '|'), ('ని', '|'), ('మా', 'U'), ('లి', 'U'), ('న్యు', '|'), ('ని', '|'), ('మా', 'U'), ('ల', '|'), ('ను', '|'), ('న', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('వా', 'U'), ('ని', '|'), ('మం', 'U'), ('గ', '|'), ('లి', '|'), ('హి', '|'), ('తు', '|'), ('గా', 'U'), ('నే', 'U'), ('లి', '|'), ('న', '|'), ('న', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('రా', 'U'), ('జ్య', '|'), ('ము', '|'), ('నే', 'U'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('పో', 'U'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('నె', '|'), ('గ', '|'), ('డ', '|'), ('దు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>స్త్రీలయెడ వాదులాడకు
 బాలురతోఁ జెలిమి సేసి భాషింపకుమీ
@@ -3535,29 +3844,32 @@
 యేలినపతి నిందసేయ కెన్నడు సుమతీ.</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>[('స్త్రీ', 'U'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('వా', 'U'), ('దు', '|'), ('లా', 'U'), ('డ', '|'), ('కు', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('తో', 'U'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('సే', 'U'), ('సి', '|'), ('భా', 'U'), ('షిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('మే', 'U'), ('లై', 'U'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('యే', 'U'), ('లి', '|'), ('న', '|'), ('ప', '|'), ('తి', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>సిరిదా వచ్చిన వచ్చును
 సలలితముగ నారికేళ సలిలము భంగిన్‌
@@ -3565,29 +3877,32 @@
 కరిమ్రింగిన వెలగపండు కరణిని సుమతీ.</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>[('సి', '|'), ('రి', '|'), ('దా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ను', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('నా', 'U'), ('రి', '|'), ('కే', 'U'), ('ళ', '|'), ('స', '|'), ('లి', '|'), ('ల', '|'), ('ము', '|'), ('భం', 'U'), ('గిన్', 'U'), ('సి', '|'), ('రి', '|'), ('దా', 'U'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('ను', '|'), ('క', '|'), ('రి', '|'), ('మ్రిం', 'U'), ('గి', '|'), ('న', '|'), ('వె', '|'), ('ల', '|'), ('గ', '|'), ('పం', 'U'), ('డు', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>మది నొకని వలచియుండఁగ
 మది చెడి యొక క్రూరవిటుఁడు మానక తిరుగున్‌
@@ -3595,29 +3910,32 @@
 జదువునె యాపంజరమున జగతిని సుమతీ.</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ది', '|'), ('నొ', '|'), ('క', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('చె', '|'), ('డి', '|'), ('యొ', '|'), ('క', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('వి', '|'), ('టు', '|'), ('డు', '|'), ('మా', 'U'), ('న', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గున్', 'U'), ('అ', '|'), ('ది', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('బి', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('నె', '|'), ('యా', 'U'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[('మ', '|'), ('ది', '|'), ('నొ', '|'), ('క', '|'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('మ', '|'), ('ది', '|'), ('చె', '|'), ('డి', '|'), ('యొ', '|'), ('క', '|'), ('క్రూ', 'U'), ('ర', '|'), ('వి', '|'), ('టు', '|'), ('డు', '|'), ('మా', 'U'), ('న', '|'), ('క', '|'), ('తి', '|'), ('రు', '|'), ('గున్', 'U'), ('అ', '|'), ('ది', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('బి', 'U'), ('ల్లి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('నె', '|'), ('యా', 'U'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>పుత్త్రోత్సాహము తండ్రికి
 బుత్త్రుఁడు జన్మించినపుడే పుట్టదు జను లా
@@ -3625,29 +3943,32 @@
 బుత్త్రోత్సాహంబు నాఁడు పొందుర సుమతీ.</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>[('పు', 'U'), ('త్త్రో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ము', '|'), ('తం', 'U'), ('డ్రి', '|'), ('కి', '|'), ('బు', 'U'), ('త్త్రు', '|'), ('డు', '|'), ('జ', 'U'), ('న్మిం', 'U'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('డే', 'U'), ('పు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('జ', '|'), ('ను', '|'), ('లా', 'U'), ('పు', 'U'), ('త్త్రు', '|'), ('ని', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('బు', 'U'), ('త్త్రో', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బు', '|'), ('నా', 'U'), ('డు', '|'), ('పొం', 'U'), ('దు', '|'), ('ర', '|'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>వెలయాలు సేయు బాసలు
 వెలయఁగ నగసాలిపొందు వెలమల చెలిమియున్‌
@@ -3655,29 +3976,32 @@
 విలసితముగ నమ్మరాదు వినురా సుమతీ.</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>[('వె', '|'), ('ల', '|'), ('యా', 'U'), ('లు', '|'), ('సే', 'U'), ('యు', '|'), ('బా', 'U'), ('స', '|'), ('లు', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('గ', '|'), ('న', '|'), ('గ', '|'), ('సా', 'U'), ('లి', '|'), ('పొం', 'U'), ('దు', '|'), ('వె', '|'), ('ల', '|'), ('మ', '|'), ('ల', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('యున్', 'U'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('గ', 'U'), ('న్న', '|'), ('క', '|'), ('లి', '|'), ('మి', '|'), ('యు', '|'), ('వి', '|'), ('ల', '|'), ('సి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దు', '|'), ('వి', '|'), ('ను', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>వేసరఁపు జాతి గానీ
 వీసముఁ దాఁ జేయనట్టి వెంగలి గానీ
@@ -3685,17 +4009,17 @@
 కాసులు గలవాఁడె రాజు గదరా సుమతీ.</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>jaathi</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>sumathi</t>
+          <t>jaathi</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
+        <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>[('వే', 'U'), ('స', '|'), ('ర', '|'), ('పు', '|'), ('జా', 'U'), ('తి', '|'), ('గా', 'U'), ('నీ', 'U'), ('వీ', 'U'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('ట్టి', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('గా', 'U'), ('నీ', 'U'), ('దా', 'U'), ('సి', '|'), ('కొ', '|'), ('డు', '|'), ('కై', 'U'), ('న', '|'), ('గా', 'U'), ('నీ', 'U'), ('కా', 'U'), ('సు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డె', '|'), ('రా', 'U'), ('జు', '|'), ('గ', '|'), ('ద', '|'), ('రా', 'U'), ('సు', '|'), ('మ', '|'), ('తీ', 'U')]</t>
         </is>
